--- a/Referentiedata/VERA - Referentiedata - 2021-12-10.xlsx
+++ b/Referentiedata/VERA - Referentiedata - 2021-12-10.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ewout\Documents\GitHub\VERA-Standaard\Referentiedata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martijn\Documents\VERA GitHub\Referentiedata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A2B2AB-C7EE-4494-8CC7-DB86732A0B9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FF8910-EA2C-4070-AB5B-429F12893E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12143,14 +12143,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27388343-0A0E-446E-86B4-9C4356EB993E}" name="Tabel1" displayName="Tabel1" ref="A1:K1067" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:K1067" xr:uid="{8B075628-E833-48DC-8779-68AB54AC5BC1}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="PRIJSCOMPONENTDETAILSOORT"/>
-        <filter val="PRIJSCOMPONENTSOORT"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K1067" xr:uid="{8B075628-E833-48DC-8779-68AB54AC5BC1}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{845F9FC6-EA7E-42C8-9954-6B75834B5282}" name="Referentiedatasoort" dataDxfId="19"/>
     <tableColumn id="7" xr3:uid="{ABFA2115-257A-4C72-8D5D-B12F03C0BC13}" name="Sortering" dataDxfId="18"/>
@@ -12524,9 +12517,7 @@
   </sheetPr>
   <dimension ref="A1:L1067"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E786" sqref="E786"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12580,7 +12571,7 @@
       </c>
       <c r="L1" s="7"/>
     </row>
-    <row r="2" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>11</v>
       </c>
@@ -12605,7 +12596,7 @@
       </c>
       <c r="K2" s="12"/>
     </row>
-    <row r="3" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>11</v>
       </c>
@@ -12630,7 +12621,7 @@
       </c>
       <c r="K3" s="12"/>
     </row>
-    <row r="4" spans="1:12" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
@@ -12655,7 +12646,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>11</v>
       </c>
@@ -12680,7 +12671,7 @@
       </c>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>11</v>
       </c>
@@ -12705,7 +12696,7 @@
       </c>
       <c r="K6" s="12"/>
     </row>
-    <row r="7" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
@@ -12730,7 +12721,7 @@
       </c>
       <c r="K7" s="12"/>
     </row>
-    <row r="8" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>11</v>
       </c>
@@ -12755,7 +12746,7 @@
       </c>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>11</v>
       </c>
@@ -12780,7 +12771,7 @@
       </c>
       <c r="K9" s="12"/>
     </row>
-    <row r="10" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
@@ -12805,7 +12796,7 @@
       </c>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:12" s="13" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>11</v>
       </c>
@@ -12830,7 +12821,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>11</v>
       </c>
@@ -12855,7 +12846,7 @@
       </c>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
@@ -12880,7 +12871,7 @@
       </c>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>11</v>
       </c>
@@ -12905,7 +12896,7 @@
       </c>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>11</v>
       </c>
@@ -12930,7 +12921,7 @@
       </c>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>11</v>
       </c>
@@ -12955,7 +12946,7 @@
       </c>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>11</v>
       </c>
@@ -12980,7 +12971,7 @@
       </c>
       <c r="K17" s="12"/>
     </row>
-    <row r="18" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>11</v>
       </c>
@@ -13005,7 +12996,7 @@
       </c>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>11</v>
       </c>
@@ -13030,7 +13021,7 @@
       </c>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>11</v>
       </c>
@@ -13055,7 +13046,7 @@
       </c>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>11</v>
       </c>
@@ -13080,7 +13071,7 @@
       </c>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>11</v>
       </c>
@@ -13105,7 +13096,7 @@
       </c>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>11</v>
       </c>
@@ -13131,7 +13122,7 @@
       <c r="K23" s="12"/>
       <c r="L23" s="14"/>
     </row>
-    <row r="24" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>11</v>
       </c>
@@ -13157,7 +13148,7 @@
       <c r="K24" s="12"/>
       <c r="L24" s="14"/>
     </row>
-    <row r="25" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>16</v>
       </c>
@@ -13180,7 +13171,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>16</v>
       </c>
@@ -13203,7 +13194,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>16</v>
       </c>
@@ -13226,7 +13217,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>16</v>
       </c>
@@ -13249,7 +13240,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>69</v>
       </c>
@@ -13274,7 +13265,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>69</v>
       </c>
@@ -13297,7 +13288,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>69</v>
       </c>
@@ -13320,7 +13311,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>69</v>
       </c>
@@ -13343,7 +13334,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>69</v>
       </c>
@@ -13366,7 +13357,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>69</v>
       </c>
@@ -13389,7 +13380,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>69</v>
       </c>
@@ -13412,7 +13403,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="13" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="13" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>69</v>
       </c>
@@ -13435,7 +13426,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>69</v>
       </c>
@@ -13458,7 +13449,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>69</v>
       </c>
@@ -13481,7 +13472,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>69</v>
       </c>
@@ -13504,7 +13495,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>69</v>
       </c>
@@ -13527,7 +13518,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>69</v>
       </c>
@@ -13550,7 +13541,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>111</v>
       </c>
@@ -13570,7 +13561,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>111</v>
       </c>
@@ -13590,7 +13581,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>111</v>
       </c>
@@ -13610,7 +13601,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>111</v>
       </c>
@@ -13630,7 +13621,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>124</v>
       </c>
@@ -13649,7 +13640,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>124</v>
       </c>
@@ -13668,7 +13659,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>132</v>
       </c>
@@ -13688,7 +13679,7 @@
       <c r="J48" s="15"/>
       <c r="K48" s="15"/>
     </row>
-    <row r="49" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>132</v>
       </c>
@@ -13708,7 +13699,7 @@
       <c r="J49" s="15"/>
       <c r="K49" s="15"/>
     </row>
-    <row r="50" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>132</v>
       </c>
@@ -13728,7 +13719,7 @@
       <c r="J50" s="15"/>
       <c r="K50" s="15"/>
     </row>
-    <row r="51" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>132</v>
       </c>
@@ -13748,7 +13739,7 @@
       <c r="J51" s="15"/>
       <c r="K51" s="15"/>
     </row>
-    <row r="52" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>132</v>
       </c>
@@ -13768,7 +13759,7 @@
       <c r="J52" s="15"/>
       <c r="K52" s="15"/>
     </row>
-    <row r="53" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>132</v>
       </c>
@@ -13788,7 +13779,7 @@
       <c r="J53" s="15"/>
       <c r="K53" s="15"/>
     </row>
-    <row r="54" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>132</v>
       </c>
@@ -13808,7 +13799,7 @@
       <c r="J54" s="15"/>
       <c r="K54" s="15"/>
     </row>
-    <row r="55" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>132</v>
       </c>
@@ -13828,7 +13819,7 @@
       <c r="J55" s="15"/>
       <c r="K55" s="15"/>
     </row>
-    <row r="56" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>132</v>
       </c>
@@ -13848,7 +13839,7 @@
       <c r="J56" s="15"/>
       <c r="K56" s="15"/>
     </row>
-    <row r="57" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
         <v>151</v>
       </c>
@@ -13869,7 +13860,7 @@
       <c r="J57" s="15"/>
       <c r="K57" s="15"/>
     </row>
-    <row r="58" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
         <v>151</v>
       </c>
@@ -13890,7 +13881,7 @@
       <c r="J58" s="15"/>
       <c r="K58" s="15"/>
     </row>
-    <row r="59" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
         <v>151</v>
       </c>
@@ -13911,7 +13902,7 @@
       <c r="J59" s="15"/>
       <c r="K59" s="15"/>
     </row>
-    <row r="60" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>158</v>
       </c>
@@ -13929,7 +13920,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>158</v>
       </c>
@@ -13947,7 +13938,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>158</v>
       </c>
@@ -13965,7 +13956,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
         <v>164</v>
       </c>
@@ -13987,7 +13978,7 @@
       <c r="J63" s="15"/>
       <c r="K63" s="15"/>
     </row>
-    <row r="64" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
         <v>164</v>
       </c>
@@ -14009,7 +14000,7 @@
       <c r="J64" s="15"/>
       <c r="K64" s="15"/>
     </row>
-    <row r="65" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
         <v>164</v>
       </c>
@@ -14031,7 +14022,7 @@
       <c r="J65" s="15"/>
       <c r="K65" s="15"/>
     </row>
-    <row r="66" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
         <v>173</v>
       </c>
@@ -14054,7 +14045,7 @@
       </c>
       <c r="K66" s="15"/>
     </row>
-    <row r="67" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
         <v>173</v>
       </c>
@@ -14077,7 +14068,7 @@
       </c>
       <c r="K67" s="15"/>
     </row>
-    <row r="68" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
         <v>173</v>
       </c>
@@ -14100,7 +14091,7 @@
       </c>
       <c r="K68" s="15"/>
     </row>
-    <row r="69" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
         <v>173</v>
       </c>
@@ -14123,7 +14114,7 @@
       </c>
       <c r="K69" s="15"/>
     </row>
-    <row r="70" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
         <v>173</v>
       </c>
@@ -14146,7 +14137,7 @@
       </c>
       <c r="K70" s="15"/>
     </row>
-    <row r="71" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
         <v>173</v>
       </c>
@@ -14169,7 +14160,7 @@
       </c>
       <c r="K71" s="15"/>
     </row>
-    <row r="72" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
         <v>173</v>
       </c>
@@ -14192,7 +14183,7 @@
       </c>
       <c r="K72" s="15"/>
     </row>
-    <row r="73" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
         <v>173</v>
       </c>
@@ -14214,7 +14205,7 @@
       </c>
       <c r="K73" s="15"/>
     </row>
-    <row r="74" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
         <v>173</v>
       </c>
@@ -14236,7 +14227,7 @@
       </c>
       <c r="K74" s="15"/>
     </row>
-    <row r="75" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
         <v>173</v>
       </c>
@@ -14258,7 +14249,7 @@
       </c>
       <c r="K75" s="15"/>
     </row>
-    <row r="76" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
         <v>175</v>
       </c>
@@ -14281,7 +14272,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
         <v>175</v>
       </c>
@@ -14304,7 +14295,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
         <v>175</v>
       </c>
@@ -14326,7 +14317,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
         <v>175</v>
       </c>
@@ -14349,7 +14340,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
         <v>175</v>
       </c>
@@ -14372,7 +14363,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
         <v>175</v>
       </c>
@@ -14395,7 +14386,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
         <v>175</v>
       </c>
@@ -14417,7 +14408,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="15" t="s">
         <v>175</v>
       </c>
@@ -14439,7 +14430,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
         <v>175</v>
       </c>
@@ -14462,7 +14453,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
         <v>175</v>
       </c>
@@ -14485,7 +14476,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
         <v>212</v>
       </c>
@@ -14506,7 +14497,7 @@
       <c r="J86" s="15"/>
       <c r="K86" s="15"/>
     </row>
-    <row r="87" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
         <v>212</v>
       </c>
@@ -14527,7 +14518,7 @@
       <c r="J87" s="15"/>
       <c r="K87" s="15"/>
     </row>
-    <row r="88" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
         <v>212</v>
       </c>
@@ -14548,7 +14539,7 @@
       <c r="J88" s="15"/>
       <c r="K88" s="15"/>
     </row>
-    <row r="89" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
         <v>219</v>
       </c>
@@ -14569,7 +14560,7 @@
       <c r="J89" s="15"/>
       <c r="K89" s="15"/>
     </row>
-    <row r="90" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
         <v>219</v>
       </c>
@@ -14589,7 +14580,7 @@
       <c r="J90" s="15"/>
       <c r="K90" s="15"/>
     </row>
-    <row r="91" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
         <v>224</v>
       </c>
@@ -14609,7 +14600,7 @@
       <c r="J91" s="15"/>
       <c r="K91" s="15"/>
     </row>
-    <row r="92" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
         <v>224</v>
       </c>
@@ -14629,7 +14620,7 @@
       <c r="J92" s="15"/>
       <c r="K92" s="15"/>
     </row>
-    <row r="93" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
         <v>224</v>
       </c>
@@ -14649,7 +14640,7 @@
       <c r="J93" s="15"/>
       <c r="K93" s="15"/>
     </row>
-    <row r="94" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
         <v>224</v>
       </c>
@@ -14670,7 +14661,7 @@
       <c r="J94" s="15"/>
       <c r="K94" s="15"/>
     </row>
-    <row r="95" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
         <v>224</v>
       </c>
@@ -14691,7 +14682,7 @@
       <c r="J95" s="15"/>
       <c r="K95" s="15"/>
     </row>
-    <row r="96" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
         <v>224</v>
       </c>
@@ -14712,7 +14703,7 @@
       <c r="J96" s="15"/>
       <c r="K96" s="15"/>
     </row>
-    <row r="97" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
         <v>224</v>
       </c>
@@ -14733,7 +14724,7 @@
       <c r="J97" s="15"/>
       <c r="K97" s="15"/>
     </row>
-    <row r="98" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
         <v>238</v>
       </c>
@@ -14753,7 +14744,7 @@
       <c r="J98" s="15"/>
       <c r="K98" s="15"/>
     </row>
-    <row r="99" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
         <v>238</v>
       </c>
@@ -14773,7 +14764,7 @@
       <c r="J99" s="15"/>
       <c r="K99" s="15"/>
     </row>
-    <row r="100" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
         <v>238</v>
       </c>
@@ -14793,7 +14784,7 @@
       <c r="J100" s="15"/>
       <c r="K100" s="15"/>
     </row>
-    <row r="101" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
         <v>238</v>
       </c>
@@ -14813,7 +14804,7 @@
       <c r="J101" s="15"/>
       <c r="K101" s="15"/>
     </row>
-    <row r="102" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
         <v>247</v>
       </c>
@@ -14832,7 +14823,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="103" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>247</v>
       </c>
@@ -14851,7 +14842,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="104" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>247</v>
       </c>
@@ -14870,7 +14861,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="105" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>247</v>
       </c>
@@ -14889,7 +14880,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="106" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
         <v>260</v>
       </c>
@@ -14910,7 +14901,7 @@
       <c r="J106" s="15"/>
       <c r="K106" s="15"/>
     </row>
-    <row r="107" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
         <v>260</v>
       </c>
@@ -14931,7 +14922,7 @@
       <c r="J107" s="15"/>
       <c r="K107" s="15"/>
     </row>
-    <row r="108" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
         <v>260</v>
       </c>
@@ -14952,7 +14943,7 @@
       <c r="J108" s="15"/>
       <c r="K108" s="15"/>
     </row>
-    <row r="109" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>265</v>
       </c>
@@ -14969,7 +14960,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="110" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>265</v>
       </c>
@@ -14986,7 +14977,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="111" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>265</v>
       </c>
@@ -15003,7 +14994,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="112" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>265</v>
       </c>
@@ -15022,7 +15013,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>265</v>
       </c>
@@ -15039,7 +15030,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>265</v>
       </c>
@@ -15058,7 +15049,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>265</v>
       </c>
@@ -15077,7 +15068,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>265</v>
       </c>
@@ -15094,7 +15085,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>283</v>
       </c>
@@ -15112,7 +15103,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>283</v>
       </c>
@@ -15130,7 +15121,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>283</v>
       </c>
@@ -15148,7 +15139,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>283</v>
       </c>
@@ -15166,7 +15157,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>283</v>
       </c>
@@ -15186,7 +15177,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>283</v>
       </c>
@@ -15206,7 +15197,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>283</v>
       </c>
@@ -15224,7 +15215,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>283</v>
       </c>
@@ -15241,7 +15232,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>283</v>
       </c>
@@ -15261,7 +15252,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
         <v>298</v>
       </c>
@@ -15281,7 +15272,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="127" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
         <v>298</v>
       </c>
@@ -15301,7 +15292,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
         <v>298</v>
       </c>
@@ -15321,7 +15312,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="129" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
         <v>298</v>
       </c>
@@ -15341,7 +15332,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
         <v>298</v>
       </c>
@@ -15361,7 +15352,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
         <v>298</v>
       </c>
@@ -15381,7 +15372,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="132" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
         <v>311</v>
       </c>
@@ -15401,7 +15392,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="133" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
         <v>311</v>
       </c>
@@ -15421,7 +15412,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="134" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
         <v>314</v>
       </c>
@@ -15441,7 +15432,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="135" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
         <v>314</v>
       </c>
@@ -15461,7 +15452,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="136" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
         <v>314</v>
       </c>
@@ -15483,7 +15474,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="137" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
         <v>314</v>
       </c>
@@ -15503,7 +15494,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="138" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
         <v>314</v>
       </c>
@@ -15523,7 +15514,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="139" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
         <v>314</v>
       </c>
@@ -15543,7 +15534,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="140" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
         <v>314</v>
       </c>
@@ -15565,7 +15556,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="141" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
         <v>333</v>
       </c>
@@ -15582,7 +15573,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="142" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
         <v>333</v>
       </c>
@@ -15599,7 +15590,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="143" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
         <v>338</v>
       </c>
@@ -15620,7 +15611,7 @@
       <c r="J143" s="15"/>
       <c r="K143" s="15"/>
     </row>
-    <row r="144" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="15" t="s">
         <v>338</v>
       </c>
@@ -15641,7 +15632,7 @@
       <c r="J144" s="15"/>
       <c r="K144" s="15"/>
     </row>
-    <row r="145" spans="1:11" s="13" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A145" s="15" t="s">
         <v>338</v>
       </c>
@@ -15664,7 +15655,7 @@
       <c r="J145" s="15"/>
       <c r="K145" s="15"/>
     </row>
-    <row r="146" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="15" t="s">
         <v>338</v>
       </c>
@@ -15685,7 +15676,7 @@
       <c r="J146" s="15"/>
       <c r="K146" s="15"/>
     </row>
-    <row r="147" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="15" t="s">
         <v>338</v>
       </c>
@@ -15706,7 +15697,7 @@
       <c r="J147" s="15"/>
       <c r="K147" s="15"/>
     </row>
-    <row r="148" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="15" t="s">
         <v>350</v>
       </c>
@@ -15727,7 +15718,7 @@
       <c r="J148" s="15"/>
       <c r="K148" s="15"/>
     </row>
-    <row r="149" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="15" t="s">
         <v>350</v>
       </c>
@@ -15750,7 +15741,7 @@
       <c r="J149" s="15"/>
       <c r="K149" s="15"/>
     </row>
-    <row r="150" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="15" t="s">
         <v>350</v>
       </c>
@@ -15773,7 +15764,7 @@
       <c r="J150" s="15"/>
       <c r="K150" s="15"/>
     </row>
-    <row r="151" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="15" t="s">
         <v>350</v>
       </c>
@@ -15794,7 +15785,7 @@
       <c r="J151" s="15"/>
       <c r="K151" s="15"/>
     </row>
-    <row r="152" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
         <v>358</v>
       </c>
@@ -15813,7 +15804,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="153" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
         <v>358</v>
       </c>
@@ -15832,7 +15823,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="154" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
         <v>358</v>
       </c>
@@ -15851,7 +15842,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="155" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="13" t="s">
         <v>358</v>
       </c>
@@ -15870,7 +15861,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="156" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="15" t="s">
         <v>371</v>
       </c>
@@ -15891,7 +15882,7 @@
       <c r="J156" s="15"/>
       <c r="K156" s="15"/>
     </row>
-    <row r="157" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="15" t="s">
         <v>371</v>
       </c>
@@ -15912,7 +15903,7 @@
       <c r="J157" s="15"/>
       <c r="K157" s="15"/>
     </row>
-    <row r="158" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="15" t="s">
         <v>371</v>
       </c>
@@ -15933,7 +15924,7 @@
       <c r="J158" s="15"/>
       <c r="K158" s="15"/>
     </row>
-    <row r="159" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="15" t="s">
         <v>371</v>
       </c>
@@ -15954,7 +15945,7 @@
       <c r="J159" s="15"/>
       <c r="K159" s="15"/>
     </row>
-    <row r="160" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="15" t="s">
         <v>379</v>
       </c>
@@ -15975,7 +15966,7 @@
       <c r="J160" s="15"/>
       <c r="K160" s="15"/>
     </row>
-    <row r="161" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="15" t="s">
         <v>379</v>
       </c>
@@ -15996,7 +15987,7 @@
       <c r="J161" s="15"/>
       <c r="K161" s="15"/>
     </row>
-    <row r="162" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="15" t="s">
         <v>379</v>
       </c>
@@ -16017,7 +16008,7 @@
       <c r="J162" s="15"/>
       <c r="K162" s="15"/>
     </row>
-    <row r="163" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="15" t="s">
         <v>379</v>
       </c>
@@ -16038,7 +16029,7 @@
       <c r="J163" s="15"/>
       <c r="K163" s="15"/>
     </row>
-    <row r="164" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="13" t="s">
         <v>380</v>
       </c>
@@ -16055,7 +16046,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="165" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="13" t="s">
         <v>380</v>
       </c>
@@ -16072,7 +16063,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="166" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="s">
         <v>380</v>
       </c>
@@ -16089,7 +16080,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="167" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="13" t="s">
         <v>380</v>
       </c>
@@ -16106,7 +16097,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="168" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="13" t="s">
         <v>380</v>
       </c>
@@ -16123,7 +16114,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="169" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="13" t="s">
         <v>380</v>
       </c>
@@ -16140,7 +16131,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="170" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="13" t="s">
         <v>380</v>
       </c>
@@ -16157,7 +16148,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="171" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="13" t="s">
         <v>380</v>
       </c>
@@ -16174,7 +16165,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="172" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="13" t="s">
         <v>380</v>
       </c>
@@ -16191,7 +16182,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="173" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="13" t="s">
         <v>380</v>
       </c>
@@ -16208,7 +16199,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="174" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="13" t="s">
         <v>380</v>
       </c>
@@ -16225,7 +16216,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="175" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="13" t="s">
         <v>380</v>
       </c>
@@ -16242,7 +16233,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="176" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="13" t="s">
         <v>380</v>
       </c>
@@ -16259,7 +16250,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="177" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="13" t="s">
         <v>380</v>
       </c>
@@ -16276,7 +16267,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="178" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="13" t="s">
         <v>380</v>
       </c>
@@ -16293,7 +16284,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="13" t="s">
         <v>380</v>
       </c>
@@ -16310,7 +16301,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="13" t="s">
         <v>380</v>
       </c>
@@ -16327,7 +16318,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="181" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="13" t="s">
         <v>380</v>
       </c>
@@ -16344,7 +16335,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="13" t="s">
         <v>380</v>
       </c>
@@ -16361,7 +16352,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="13" t="s">
         <v>380</v>
       </c>
@@ -16380,7 +16371,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="184" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="13" t="s">
         <v>380</v>
       </c>
@@ -16397,7 +16388,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="185" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="13" t="s">
         <v>380</v>
       </c>
@@ -16414,7 +16405,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="186" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="13" t="s">
         <v>380</v>
       </c>
@@ -16431,7 +16422,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="187" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="13" t="s">
         <v>380</v>
       </c>
@@ -16448,7 +16439,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="188" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="13" t="s">
         <v>380</v>
       </c>
@@ -16465,7 +16456,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="189" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="13" t="s">
         <v>380</v>
       </c>
@@ -16482,7 +16473,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="13" t="s">
         <v>380</v>
       </c>
@@ -16499,7 +16490,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="13" t="s">
         <v>380</v>
       </c>
@@ -16516,7 +16507,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="13" t="s">
         <v>380</v>
       </c>
@@ -16533,7 +16524,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="193" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="13" t="s">
         <v>380</v>
       </c>
@@ -16550,7 +16541,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="194" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="13" t="s">
         <v>380</v>
       </c>
@@ -16567,7 +16558,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="195" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="13" t="s">
         <v>380</v>
       </c>
@@ -16584,7 +16575,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="196" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="13" t="s">
         <v>380</v>
       </c>
@@ -16601,7 +16592,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="197" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="13" t="s">
         <v>380</v>
       </c>
@@ -16618,7 +16609,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="198" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="13" t="s">
         <v>380</v>
       </c>
@@ -16635,7 +16626,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="199" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="13" t="s">
         <v>380</v>
       </c>
@@ -16652,7 +16643,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="200" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="13" t="s">
         <v>380</v>
       </c>
@@ -16669,7 +16660,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="201" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="13" t="s">
         <v>380</v>
       </c>
@@ -16686,7 +16677,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="13" t="s">
         <v>454</v>
       </c>
@@ -16706,7 +16697,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="13" t="s">
         <v>454</v>
       </c>
@@ -16725,7 +16716,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="204" spans="1:9" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A204" s="13" t="s">
         <v>454</v>
       </c>
@@ -16745,7 +16736,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="205" spans="1:9" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A205" s="13" t="s">
         <v>454</v>
       </c>
@@ -16765,7 +16756,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="206" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="13" t="s">
         <v>454</v>
       </c>
@@ -16785,7 +16776,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="207" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="13" t="s">
         <v>454</v>
       </c>
@@ -16805,7 +16796,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="208" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="13" t="s">
         <v>454</v>
       </c>
@@ -16824,7 +16815,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="209" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="13" t="s">
         <v>454</v>
       </c>
@@ -16844,7 +16835,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="210" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="13" t="s">
         <v>454</v>
       </c>
@@ -16863,7 +16854,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="211" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="13" t="s">
         <v>479</v>
       </c>
@@ -16880,7 +16871,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="212" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="13" t="s">
         <v>479</v>
       </c>
@@ -16897,7 +16888,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="213" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="13" t="s">
         <v>479</v>
       </c>
@@ -16914,7 +16905,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="214" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="13" t="s">
         <v>479</v>
       </c>
@@ -16931,7 +16922,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="215" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="13" t="s">
         <v>479</v>
       </c>
@@ -16948,7 +16939,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="216" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="13" t="s">
         <v>479</v>
       </c>
@@ -16965,7 +16956,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="217" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="13" t="s">
         <v>479</v>
       </c>
@@ -16984,7 +16975,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="218" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="13" t="s">
         <v>479</v>
       </c>
@@ -17001,7 +16992,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="219" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="13" t="s">
         <v>479</v>
       </c>
@@ -17018,7 +17009,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="13" t="s">
         <v>479</v>
       </c>
@@ -17035,7 +17026,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="221" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="13" t="s">
         <v>479</v>
       </c>
@@ -17052,7 +17043,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="222" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="13" t="s">
         <v>479</v>
       </c>
@@ -17069,7 +17060,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="223" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="13" t="s">
         <v>479</v>
       </c>
@@ -17086,7 +17077,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="224" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="13" t="s">
         <v>479</v>
       </c>
@@ -17103,7 +17094,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="225" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="13" t="s">
         <v>479</v>
       </c>
@@ -17122,7 +17113,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="226" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="13" t="s">
         <v>479</v>
       </c>
@@ -17139,7 +17130,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="227" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="13" t="s">
         <v>479</v>
       </c>
@@ -17156,7 +17147,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="228" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="13" t="s">
         <v>479</v>
       </c>
@@ -17173,7 +17164,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="229" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="13" t="s">
         <v>479</v>
       </c>
@@ -17190,7 +17181,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="230" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="13" t="s">
         <v>479</v>
       </c>
@@ -17207,7 +17198,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="231" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="13" t="s">
         <v>479</v>
       </c>
@@ -17224,7 +17215,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="232" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="13" t="s">
         <v>479</v>
       </c>
@@ -17241,7 +17232,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="233" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="13" t="s">
         <v>479</v>
       </c>
@@ -17258,7 +17249,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="234" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="13" t="s">
         <v>479</v>
       </c>
@@ -17275,7 +17266,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="235" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="13" t="s">
         <v>479</v>
       </c>
@@ -17292,7 +17283,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="236" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="13" t="s">
         <v>479</v>
       </c>
@@ -17309,7 +17300,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="237" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="13" t="s">
         <v>479</v>
       </c>
@@ -17326,7 +17317,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="238" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="13" t="s">
         <v>479</v>
       </c>
@@ -17343,7 +17334,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="239" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="13" t="s">
         <v>479</v>
       </c>
@@ -17360,7 +17351,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="240" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="13" t="s">
         <v>479</v>
       </c>
@@ -17377,7 +17368,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="241" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="13" t="s">
         <v>479</v>
       </c>
@@ -17394,7 +17385,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="242" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="13" t="s">
         <v>479</v>
       </c>
@@ -17411,7 +17402,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="243" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="13" t="s">
         <v>479</v>
       </c>
@@ -17428,7 +17419,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="244" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="13" t="s">
         <v>479</v>
       </c>
@@ -17445,7 +17436,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="245" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="13" t="s">
         <v>479</v>
       </c>
@@ -17462,7 +17453,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="246" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="13" t="s">
         <v>479</v>
       </c>
@@ -17479,7 +17470,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="247" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="13" t="s">
         <v>479</v>
       </c>
@@ -17498,7 +17489,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="248" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="13" t="s">
         <v>479</v>
       </c>
@@ -17515,7 +17506,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="249" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="13" t="s">
         <v>479</v>
       </c>
@@ -17532,7 +17523,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="250" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="13" t="s">
         <v>479</v>
       </c>
@@ -17549,7 +17540,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="251" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="13" t="s">
         <v>479</v>
       </c>
@@ -17566,7 +17557,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="252" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="13" t="s">
         <v>479</v>
       </c>
@@ -17583,7 +17574,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="253" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="13" t="s">
         <v>479</v>
       </c>
@@ -17600,7 +17591,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="254" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="13" t="s">
         <v>479</v>
       </c>
@@ -17617,7 +17608,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="255" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="13" t="s">
         <v>479</v>
       </c>
@@ -17634,7 +17625,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="256" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="13" t="s">
         <v>479</v>
       </c>
@@ -17651,7 +17642,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="13" t="s">
         <v>479</v>
       </c>
@@ -17668,7 +17659,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="258" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="13" t="s">
         <v>479</v>
       </c>
@@ -17685,7 +17676,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="259" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="13" t="s">
         <v>479</v>
       </c>
@@ -17702,7 +17693,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="260" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="13" t="s">
         <v>479</v>
       </c>
@@ -17719,7 +17710,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="261" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="13" t="s">
         <v>479</v>
       </c>
@@ -17736,7 +17727,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="262" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="13" t="s">
         <v>479</v>
       </c>
@@ -17753,7 +17744,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="263" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="13" t="s">
         <v>479</v>
       </c>
@@ -17770,7 +17761,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="264" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="13" t="s">
         <v>479</v>
       </c>
@@ -17787,7 +17778,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="265" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="13" t="s">
         <v>479</v>
       </c>
@@ -17804,7 +17795,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="266" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="13" t="s">
         <v>479</v>
       </c>
@@ -17821,7 +17812,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="267" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="13" t="s">
         <v>479</v>
       </c>
@@ -17838,7 +17829,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="268" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="13" t="s">
         <v>479</v>
       </c>
@@ -17855,7 +17846,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="269" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="13" t="s">
         <v>479</v>
       </c>
@@ -17872,7 +17863,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="270" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="13" t="s">
         <v>479</v>
       </c>
@@ -17889,7 +17880,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="271" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="13" t="s">
         <v>479</v>
       </c>
@@ -17906,7 +17897,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="272" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="13" t="s">
         <v>479</v>
       </c>
@@ -17923,7 +17914,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="273" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="13" t="s">
         <v>479</v>
       </c>
@@ -17940,7 +17931,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="274" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="13" t="s">
         <v>479</v>
       </c>
@@ -17957,7 +17948,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="275" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="13" t="s">
         <v>479</v>
       </c>
@@ -17974,7 +17965,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="276" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="13" t="s">
         <v>479</v>
       </c>
@@ -17991,7 +17982,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="277" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="13" t="s">
         <v>479</v>
       </c>
@@ -18008,7 +17999,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="278" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="13" t="s">
         <v>609</v>
       </c>
@@ -18025,7 +18016,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="279" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="13" t="s">
         <v>609</v>
       </c>
@@ -18042,7 +18033,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="280" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="13" t="s">
         <v>74</v>
       </c>
@@ -18065,7 +18056,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="281" spans="1:11" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A281" s="13" t="s">
         <v>74</v>
       </c>
@@ -18088,7 +18079,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="282" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="13" t="s">
         <v>74</v>
       </c>
@@ -18111,7 +18102,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="283" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" s="13" t="s">
         <v>74</v>
       </c>
@@ -18134,7 +18125,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="284" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" s="13" t="s">
         <v>74</v>
       </c>
@@ -18157,7 +18148,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="285" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A285" s="13" t="s">
         <v>74</v>
       </c>
@@ -18180,7 +18171,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="286" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" s="13" t="s">
         <v>74</v>
       </c>
@@ -18203,7 +18194,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="287" spans="1:11" s="13" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A287" s="13" t="s">
         <v>74</v>
       </c>
@@ -18226,7 +18217,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="288" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="13" t="s">
         <v>636</v>
       </c>
@@ -18244,7 +18235,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="289" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="13" t="s">
         <v>636</v>
       </c>
@@ -18262,7 +18253,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="290" spans="1:10" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A290" s="13" t="s">
         <v>636</v>
       </c>
@@ -18282,7 +18273,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="291" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="13" t="s">
         <v>636</v>
       </c>
@@ -18300,7 +18291,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="292" spans="1:10" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A292" s="13" t="s">
         <v>636</v>
       </c>
@@ -18320,7 +18311,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="293" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="13" t="s">
         <v>636</v>
       </c>
@@ -18338,7 +18329,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="294" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="13" t="s">
         <v>636</v>
       </c>
@@ -18358,7 +18349,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="295" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="13" t="s">
         <v>636</v>
       </c>
@@ -18378,7 +18369,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="296" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="13" t="s">
         <v>636</v>
       </c>
@@ -18398,7 +18389,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="297" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="13" t="s">
         <v>636</v>
       </c>
@@ -18416,7 +18407,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="298" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="13" t="s">
         <v>636</v>
       </c>
@@ -18434,7 +18425,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="299" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="13" t="s">
         <v>657</v>
       </c>
@@ -18457,7 +18448,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="300" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="13" t="s">
         <v>657</v>
       </c>
@@ -18482,7 +18473,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="301" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="13" t="s">
         <v>657</v>
       </c>
@@ -18507,7 +18498,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="302" spans="1:10" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="13" t="s">
         <v>657</v>
       </c>
@@ -18532,7 +18523,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="303" spans="1:10" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A303" s="13" t="s">
         <v>657</v>
       </c>
@@ -18557,7 +18548,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="304" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="13" t="s">
         <v>657</v>
       </c>
@@ -18582,7 +18573,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="305" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="13" t="s">
         <v>657</v>
       </c>
@@ -18605,7 +18596,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="306" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="13" t="s">
         <v>657</v>
       </c>
@@ -18628,7 +18619,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="307" spans="1:11" s="13" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" s="13" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A307" s="13" t="s">
         <v>657</v>
       </c>
@@ -18653,7 +18644,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="308" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="13" t="s">
         <v>657</v>
       </c>
@@ -18678,7 +18669,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="309" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="13" t="s">
         <v>657</v>
       </c>
@@ -18701,7 +18692,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="310" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="13" t="s">
         <v>657</v>
       </c>
@@ -18726,7 +18717,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="311" spans="1:11" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A311" s="13" t="s">
         <v>657</v>
       </c>
@@ -18751,7 +18742,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="312" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="13" t="s">
         <v>657</v>
       </c>
@@ -18776,7 +18767,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="313" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" s="13" t="s">
         <v>657</v>
       </c>
@@ -18801,7 +18792,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="314" spans="1:11" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A314" s="13" t="s">
         <v>657</v>
       </c>
@@ -18826,7 +18817,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="315" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
         <v>657</v>
       </c>
@@ -18853,7 +18844,7 @@
       </c>
       <c r="K315" s="10"/>
     </row>
-    <row r="316" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="13" t="s">
         <v>657</v>
       </c>
@@ -18876,7 +18867,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="317" spans="1:11" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A317" s="13" t="s">
         <v>657</v>
       </c>
@@ -18901,7 +18892,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="318" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" s="13" t="s">
         <v>657</v>
       </c>
@@ -18926,7 +18917,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="319" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="13" t="s">
         <v>657</v>
       </c>
@@ -18949,7 +18940,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="320" spans="1:11" s="13" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A320" s="13" t="s">
         <v>657</v>
       </c>
@@ -18974,7 +18965,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="321" spans="1:10" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A321" s="13" t="s">
         <v>657</v>
       </c>
@@ -18999,7 +18990,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="322" spans="1:10" s="13" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A322" s="13" t="s">
         <v>657</v>
       </c>
@@ -19024,7 +19015,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="323" spans="1:10" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A323" s="13" t="s">
         <v>657</v>
       </c>
@@ -19049,7 +19040,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="324" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="13" t="s">
         <v>657</v>
       </c>
@@ -19072,7 +19063,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="325" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="13" t="s">
         <v>657</v>
       </c>
@@ -19097,7 +19088,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="326" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="13" t="s">
         <v>657</v>
       </c>
@@ -19122,7 +19113,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="327" spans="1:10" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A327" s="13" t="s">
         <v>657</v>
       </c>
@@ -19147,7 +19138,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="328" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="13" t="s">
         <v>657</v>
       </c>
@@ -19170,7 +19161,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="329" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="13" t="s">
         <v>657</v>
       </c>
@@ -19195,7 +19186,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="330" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="13" t="s">
         <v>657</v>
       </c>
@@ -19218,7 +19209,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="331" spans="1:10" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A331" s="13" t="s">
         <v>657</v>
       </c>
@@ -19243,7 +19234,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="332" spans="1:10" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A332" s="13" t="s">
         <v>657</v>
       </c>
@@ -19268,7 +19259,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="333" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="13" t="s">
         <v>657</v>
       </c>
@@ -19293,7 +19284,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="334" spans="1:10" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A334" s="13" t="s">
         <v>657</v>
       </c>
@@ -19318,7 +19309,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="335" spans="1:10" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A335" s="13" t="s">
         <v>657</v>
       </c>
@@ -19343,7 +19334,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="336" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="13" t="s">
         <v>657</v>
       </c>
@@ -19366,7 +19357,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="337" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="13" t="s">
         <v>657</v>
       </c>
@@ -19389,7 +19380,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="338" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="13" t="s">
         <v>657</v>
       </c>
@@ -19412,7 +19403,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="339" spans="1:10" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A339" s="13" t="s">
         <v>657</v>
       </c>
@@ -19437,7 +19428,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="340" spans="1:10" s="13" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A340" s="13" t="s">
         <v>657</v>
       </c>
@@ -19462,7 +19453,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="341" spans="1:10" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A341" s="13" t="s">
         <v>657</v>
       </c>
@@ -19487,7 +19478,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="342" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="13" t="s">
         <v>657</v>
       </c>
@@ -19512,7 +19503,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="343" spans="1:10" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A343" s="13" t="s">
         <v>657</v>
       </c>
@@ -19537,7 +19528,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="344" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="13" t="s">
         <v>657</v>
       </c>
@@ -19562,7 +19553,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="345" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="13" t="s">
         <v>657</v>
       </c>
@@ -19585,7 +19576,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="346" spans="1:10" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A346" s="13" t="s">
         <v>657</v>
       </c>
@@ -19610,7 +19601,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="347" spans="1:10" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A347" s="13" t="s">
         <v>657</v>
       </c>
@@ -19635,7 +19626,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="348" spans="1:10" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A348" s="13" t="s">
         <v>657</v>
       </c>
@@ -19660,7 +19651,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="349" spans="1:10" s="13" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A349" s="13" t="s">
         <v>657</v>
       </c>
@@ -19685,7 +19676,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="350" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="13" t="s">
         <v>657</v>
       </c>
@@ -19708,7 +19699,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="351" spans="1:10" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A351" s="13" t="s">
         <v>657</v>
       </c>
@@ -19733,7 +19724,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="352" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352" s="13" t="s">
         <v>657</v>
       </c>
@@ -19756,7 +19747,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="353" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A353" s="13" t="s">
         <v>657</v>
       </c>
@@ -19779,7 +19770,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="354" spans="1:10" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A354" s="13" t="s">
         <v>657</v>
       </c>
@@ -19804,7 +19795,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="355" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" s="13" t="s">
         <v>657</v>
       </c>
@@ -19827,7 +19818,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="356" spans="1:10" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A356" s="13" t="s">
         <v>657</v>
       </c>
@@ -19852,7 +19843,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="357" spans="1:10" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A357" s="13" t="s">
         <v>657</v>
       </c>
@@ -19877,7 +19868,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="358" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="13" t="s">
         <v>657</v>
       </c>
@@ -19902,7 +19893,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="359" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="13" t="s">
         <v>657</v>
       </c>
@@ -19925,7 +19916,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="360" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" s="13" t="s">
         <v>657</v>
       </c>
@@ -19948,7 +19939,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="361" spans="1:10" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A361" s="13" t="s">
         <v>657</v>
       </c>
@@ -19973,7 +19964,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="362" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A362" s="13" t="s">
         <v>657</v>
       </c>
@@ -19998,7 +19989,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="363" spans="1:10" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A363" s="13" t="s">
         <v>657</v>
       </c>
@@ -20023,7 +20014,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="364" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A364" s="13" t="s">
         <v>657</v>
       </c>
@@ -20048,7 +20039,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="365" spans="1:10" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A365" s="13" t="s">
         <v>657</v>
       </c>
@@ -20073,7 +20064,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="366" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="13" t="s">
         <v>657</v>
       </c>
@@ -20096,7 +20087,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="367" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" s="13" t="s">
         <v>657</v>
       </c>
@@ -20121,7 +20112,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="368" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A368" s="13" t="s">
         <v>828</v>
       </c>
@@ -20144,7 +20135,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="369" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="13" t="s">
         <v>828</v>
       </c>
@@ -20167,7 +20158,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="370" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="13" t="s">
         <v>828</v>
       </c>
@@ -20190,7 +20181,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="371" spans="1:10" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A371" s="13" t="s">
         <v>828</v>
       </c>
@@ -20215,7 +20206,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="372" spans="1:10" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A372" s="13" t="s">
         <v>828</v>
       </c>
@@ -20240,7 +20231,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="373" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" s="13" t="s">
         <v>828</v>
       </c>
@@ -20263,7 +20254,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="374" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A374" s="13" t="s">
         <v>828</v>
       </c>
@@ -20286,7 +20277,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="375" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A375" s="13" t="s">
         <v>828</v>
       </c>
@@ -20309,7 +20300,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="376" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="13" t="s">
         <v>828</v>
       </c>
@@ -20334,7 +20325,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="377" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" s="13" t="s">
         <v>828</v>
       </c>
@@ -20357,7 +20348,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="378" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A378" s="13" t="s">
         <v>828</v>
       </c>
@@ -20380,7 +20371,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="379" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A379" s="13" t="s">
         <v>828</v>
       </c>
@@ -20403,7 +20394,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="380" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A380" s="13" t="s">
         <v>828</v>
       </c>
@@ -20426,7 +20417,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="381" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A381" s="13" t="s">
         <v>828</v>
       </c>
@@ -20449,7 +20440,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="382" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A382" s="13" t="s">
         <v>828</v>
       </c>
@@ -20474,7 +20465,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="383" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A383" s="13" t="s">
         <v>828</v>
       </c>
@@ -20497,7 +20488,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="384" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A384" s="13" t="s">
         <v>828</v>
       </c>
@@ -20520,7 +20511,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="385" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A385" s="13" t="s">
         <v>862</v>
       </c>
@@ -20539,7 +20530,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="386" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A386" s="13" t="s">
         <v>862</v>
       </c>
@@ -20559,7 +20550,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="387" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A387" s="13" t="s">
         <v>862</v>
       </c>
@@ -20579,7 +20570,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="388" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A388" s="13" t="s">
         <v>862</v>
       </c>
@@ -20597,7 +20588,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="389" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A389" s="13" t="s">
         <v>873</v>
       </c>
@@ -20615,7 +20606,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="390" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A390" s="13" t="s">
         <v>873</v>
       </c>
@@ -20633,7 +20624,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="391" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A391" s="13" t="s">
         <v>873</v>
       </c>
@@ -20651,7 +20642,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="392" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A392" s="13" t="s">
         <v>873</v>
       </c>
@@ -20669,7 +20660,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="393" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A393" s="13" t="s">
         <v>873</v>
       </c>
@@ -20689,7 +20680,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="394" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A394" s="13" t="s">
         <v>873</v>
       </c>
@@ -20707,7 +20698,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="395" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A395" s="13" t="s">
         <v>884</v>
       </c>
@@ -20725,7 +20716,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="396" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A396" s="13" t="s">
         <v>884</v>
       </c>
@@ -20743,7 +20734,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="397" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A397" s="13" t="s">
         <v>884</v>
       </c>
@@ -20763,7 +20754,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="398" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A398" s="13" t="s">
         <v>884</v>
       </c>
@@ -20781,7 +20772,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="399" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A399" s="13" t="s">
         <v>884</v>
       </c>
@@ -20799,7 +20790,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="400" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A400" s="13" t="s">
         <v>884</v>
       </c>
@@ -20817,7 +20808,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="401" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A401" s="13" t="s">
         <v>884</v>
       </c>
@@ -20835,7 +20826,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="402" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A402" s="13" t="s">
         <v>897</v>
       </c>
@@ -20853,7 +20844,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="403" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A403" s="13" t="s">
         <v>897</v>
       </c>
@@ -20870,7 +20861,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="404" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A404" s="13" t="s">
         <v>897</v>
       </c>
@@ -20888,7 +20879,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="405" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A405" s="13" t="s">
         <v>897</v>
       </c>
@@ -20906,7 +20897,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="406" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A406" s="13" t="s">
         <v>897</v>
       </c>
@@ -20924,7 +20915,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="407" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A407" s="13" t="s">
         <v>897</v>
       </c>
@@ -20942,7 +20933,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="408" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A408" s="13" t="s">
         <v>897</v>
       </c>
@@ -20960,7 +20951,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="409" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A409" s="13" t="s">
         <v>897</v>
       </c>
@@ -20978,7 +20969,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="410" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A410" s="13" t="s">
         <v>897</v>
       </c>
@@ -20996,7 +20987,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="411" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A411" s="13" t="s">
         <v>897</v>
       </c>
@@ -21014,7 +21005,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="412" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A412" s="13" t="s">
         <v>897</v>
       </c>
@@ -21034,7 +21025,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="413" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A413" s="13" t="s">
         <v>897</v>
       </c>
@@ -21052,7 +21043,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="414" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A414" s="13" t="s">
         <v>919</v>
       </c>
@@ -21070,7 +21061,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="415" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A415" s="13" t="s">
         <v>919</v>
       </c>
@@ -21088,7 +21079,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="416" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A416" s="13" t="s">
         <v>919</v>
       </c>
@@ -21106,7 +21097,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="417" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A417" s="13" t="s">
         <v>919</v>
       </c>
@@ -21124,7 +21115,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="418" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A418" s="13" t="s">
         <v>919</v>
       </c>
@@ -21142,7 +21133,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="419" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A419" s="13" t="s">
         <v>919</v>
       </c>
@@ -21160,7 +21151,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="420" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A420" s="13" t="s">
         <v>919</v>
       </c>
@@ -21178,7 +21169,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="421" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A421" s="13" t="s">
         <v>919</v>
       </c>
@@ -21196,7 +21187,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="422" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A422" s="13" t="s">
         <v>919</v>
       </c>
@@ -21214,7 +21205,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="423" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A423" s="13" t="s">
         <v>919</v>
       </c>
@@ -21232,7 +21223,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="424" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A424" s="13" t="s">
         <v>919</v>
       </c>
@@ -21250,7 +21241,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="425" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A425" s="13" t="s">
         <v>919</v>
       </c>
@@ -21268,7 +21259,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="426" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A426" s="13" t="s">
         <v>919</v>
       </c>
@@ -21286,7 +21277,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="427" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A427" s="13" t="s">
         <v>919</v>
       </c>
@@ -21304,7 +21295,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="428" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A428" s="13" t="s">
         <v>942</v>
       </c>
@@ -21322,7 +21313,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="429" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A429" s="13" t="s">
         <v>942</v>
       </c>
@@ -21340,7 +21331,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="430" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A430" s="13" t="s">
         <v>942</v>
       </c>
@@ -21358,7 +21349,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="431" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A431" s="13" t="s">
         <v>942</v>
       </c>
@@ -21376,7 +21367,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="432" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A432" s="13" t="s">
         <v>942</v>
       </c>
@@ -21394,7 +21385,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="433" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A433" s="13" t="s">
         <v>942</v>
       </c>
@@ -21412,7 +21403,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="434" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A434" s="13" t="s">
         <v>942</v>
       </c>
@@ -21430,7 +21421,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="435" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A435" s="13" t="s">
         <v>942</v>
       </c>
@@ -21448,7 +21439,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="436" spans="1:9" s="13" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" s="13" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A436" s="13" t="s">
         <v>958</v>
       </c>
@@ -21468,7 +21459,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="437" spans="1:9" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A437" s="13" t="s">
         <v>958</v>
       </c>
@@ -21488,7 +21479,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="438" spans="1:9" s="13" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" s="13" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A438" s="13" t="s">
         <v>958</v>
       </c>
@@ -21508,7 +21499,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="439" spans="1:9" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A439" s="13" t="s">
         <v>958</v>
       </c>
@@ -21528,7 +21519,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="440" spans="1:9" s="13" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" s="13" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A440" s="13" t="s">
         <v>958</v>
       </c>
@@ -21548,7 +21539,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="441" spans="1:9" s="13" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A441" s="13" t="s">
         <v>958</v>
       </c>
@@ -21568,7 +21559,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="442" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A442" s="13" t="s">
         <v>972</v>
       </c>
@@ -21588,7 +21579,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="443" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A443" s="13" t="s">
         <v>972</v>
       </c>
@@ -21608,7 +21599,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="444" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A444" s="13" t="s">
         <v>972</v>
       </c>
@@ -21628,7 +21619,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="445" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A445" s="13" t="s">
         <v>972</v>
       </c>
@@ -21648,7 +21639,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="446" spans="1:9" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A446" s="13" t="s">
         <v>972</v>
       </c>
@@ -21668,7 +21659,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="447" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A447" s="13" t="s">
         <v>988</v>
       </c>
@@ -21686,7 +21677,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="448" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A448" s="13" t="s">
         <v>988</v>
       </c>
@@ -21704,7 +21695,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="449" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A449" s="13" t="s">
         <v>988</v>
       </c>
@@ -21722,7 +21713,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="450" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A450" s="13" t="s">
         <v>661</v>
       </c>
@@ -21745,7 +21736,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="451" spans="1:11" s="13" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" s="13" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A451" s="13" t="s">
         <v>661</v>
       </c>
@@ -21768,7 +21759,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="452" spans="1:11" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A452" s="13" t="s">
         <v>661</v>
       </c>
@@ -21791,7 +21782,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="453" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A453" s="13" t="s">
         <v>661</v>
       </c>
@@ -21814,7 +21805,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="454" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A454" s="13" t="s">
         <v>661</v>
       </c>
@@ -21837,7 +21828,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="455" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A455" s="13" t="s">
         <v>661</v>
       </c>
@@ -21860,7 +21851,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="456" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A456" s="13" t="s">
         <v>661</v>
       </c>
@@ -21883,7 +21874,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="457" spans="1:11" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A457" s="13" t="s">
         <v>831</v>
       </c>
@@ -21906,7 +21897,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="458" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A458" s="13" t="s">
         <v>831</v>
       </c>
@@ -21929,7 +21920,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="459" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A459" s="13" t="s">
         <v>831</v>
       </c>
@@ -21952,7 +21943,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="460" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A460" s="13" t="s">
         <v>831</v>
       </c>
@@ -21975,7 +21966,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="461" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A461" s="13" t="s">
         <v>831</v>
       </c>
@@ -21998,7 +21989,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="462" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A462" s="13" t="s">
         <v>831</v>
       </c>
@@ -22021,7 +22012,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="463" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A463" s="13" t="s">
         <v>1024</v>
       </c>
@@ -22039,7 +22030,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="464" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A464" s="13" t="s">
         <v>1024</v>
       </c>
@@ -22057,7 +22048,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="465" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A465" s="13" t="s">
         <v>1024</v>
       </c>
@@ -22071,7 +22062,7 @@
       <c r="F465" s="12"/>
       <c r="G465" s="12"/>
     </row>
-    <row r="466" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A466" s="13" t="s">
         <v>1024</v>
       </c>
@@ -22085,7 +22076,7 @@
       <c r="F466" s="12"/>
       <c r="G466" s="12"/>
     </row>
-    <row r="467" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A467" s="13" t="s">
         <v>1024</v>
       </c>
@@ -22103,7 +22094,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="468" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A468" s="13" t="s">
         <v>1024</v>
       </c>
@@ -22121,7 +22112,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="469" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A469" s="13" t="s">
         <v>1024</v>
       </c>
@@ -22139,7 +22130,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="470" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A470" s="13" t="s">
         <v>1024</v>
       </c>
@@ -22157,7 +22148,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="471" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A471" s="13" t="s">
         <v>1024</v>
       </c>
@@ -22175,7 +22166,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="472" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A472" s="13" t="s">
         <v>1024</v>
       </c>
@@ -22193,7 +22184,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="473" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A473" s="13" t="s">
         <v>1024</v>
       </c>
@@ -22211,7 +22202,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="474" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A474" s="15" t="s">
         <v>1040</v>
       </c>
@@ -22232,7 +22223,7 @@
       <c r="J474" s="15"/>
       <c r="K474" s="15"/>
     </row>
-    <row r="475" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A475" s="15" t="s">
         <v>1040</v>
       </c>
@@ -22253,7 +22244,7 @@
       <c r="J475" s="15"/>
       <c r="K475" s="15"/>
     </row>
-    <row r="476" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A476" s="15" t="s">
         <v>1040</v>
       </c>
@@ -22274,7 +22265,7 @@
       <c r="J476" s="15"/>
       <c r="K476" s="15"/>
     </row>
-    <row r="477" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A477" s="15" t="s">
         <v>1040</v>
       </c>
@@ -22295,7 +22286,7 @@
       <c r="J477" s="15"/>
       <c r="K477" s="15"/>
     </row>
-    <row r="478" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A478" s="13" t="s">
         <v>1049</v>
       </c>
@@ -22315,7 +22306,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="479" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A479" s="13" t="s">
         <v>1049</v>
       </c>
@@ -22335,7 +22326,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="480" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A480" s="13" t="s">
         <v>1056</v>
       </c>
@@ -22354,7 +22345,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="481" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A481" s="13" t="s">
         <v>1056</v>
       </c>
@@ -22373,7 +22364,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="482" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A482" s="15" t="s">
         <v>1063</v>
       </c>
@@ -22394,7 +22385,7 @@
       <c r="J482" s="15"/>
       <c r="K482" s="15"/>
     </row>
-    <row r="483" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A483" s="15" t="s">
         <v>1063</v>
       </c>
@@ -22415,7 +22406,7 @@
       <c r="J483" s="15"/>
       <c r="K483" s="15"/>
     </row>
-    <row r="484" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A484" s="15" t="s">
         <v>1063</v>
       </c>
@@ -22436,7 +22427,7 @@
       <c r="J484" s="15"/>
       <c r="K484" s="15"/>
     </row>
-    <row r="485" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A485" s="15" t="s">
         <v>1063</v>
       </c>
@@ -22457,7 +22448,7 @@
       <c r="J485" s="15"/>
       <c r="K485" s="15"/>
     </row>
-    <row r="486" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A486" s="15" t="s">
         <v>1063</v>
       </c>
@@ -22478,7 +22469,7 @@
       <c r="J486" s="15"/>
       <c r="K486" s="15"/>
     </row>
-    <row r="487" spans="1:11" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A487" s="15" t="s">
         <v>1072</v>
       </c>
@@ -22499,7 +22490,7 @@
       <c r="J487" s="15"/>
       <c r="K487" s="15"/>
     </row>
-    <row r="488" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A488" s="15" t="s">
         <v>1075</v>
       </c>
@@ -22520,7 +22511,7 @@
       <c r="J488" s="15"/>
       <c r="K488" s="15"/>
     </row>
-    <row r="489" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A489" s="15" t="s">
         <v>1075</v>
       </c>
@@ -22541,7 +22532,7 @@
       <c r="J489" s="15"/>
       <c r="K489" s="15"/>
     </row>
-    <row r="490" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A490" s="15" t="s">
         <v>1075</v>
       </c>
@@ -22562,7 +22553,7 @@
       <c r="J490" s="15"/>
       <c r="K490" s="15"/>
     </row>
-    <row r="491" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A491" s="13" t="s">
         <v>1077</v>
       </c>
@@ -22582,7 +22573,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="492" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A492" s="13" t="s">
         <v>1077</v>
       </c>
@@ -22602,7 +22593,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="493" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A493" s="13" t="s">
         <v>1077</v>
       </c>
@@ -22622,7 +22613,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="494" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A494" s="13" t="s">
         <v>1077</v>
       </c>
@@ -22642,7 +22633,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="495" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A495" s="13" t="s">
         <v>1088</v>
       </c>
@@ -22661,7 +22652,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="496" spans="1:11" s="13" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A496" s="13" t="s">
         <v>1088</v>
       </c>
@@ -22677,7 +22668,7 @@
       <c r="F496" s="12"/>
       <c r="G496" s="12"/>
     </row>
-    <row r="497" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A497" s="13" t="s">
         <v>1088</v>
       </c>
@@ -22693,7 +22684,7 @@
       <c r="F497" s="12"/>
       <c r="G497" s="12"/>
     </row>
-    <row r="498" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A498" s="13" t="s">
         <v>1088</v>
       </c>
@@ -22709,7 +22700,7 @@
       <c r="F498" s="12"/>
       <c r="G498" s="12"/>
     </row>
-    <row r="499" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A499" s="13" t="s">
         <v>1088</v>
       </c>
@@ -22728,7 +22719,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="500" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A500" s="13" t="s">
         <v>1088</v>
       </c>
@@ -22747,7 +22738,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="501" spans="1:11" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A501" s="13" t="s">
         <v>1088</v>
       </c>
@@ -22766,7 +22757,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="502" spans="1:11" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A502" s="13" t="s">
         <v>1088</v>
       </c>
@@ -22785,7 +22776,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="503" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A503" s="13" t="s">
         <v>1088</v>
       </c>
@@ -22804,7 +22795,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="504" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A504" s="15" t="s">
         <v>1112</v>
       </c>
@@ -22825,7 +22816,7 @@
       <c r="J504" s="15"/>
       <c r="K504" s="15"/>
     </row>
-    <row r="505" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A505" s="15" t="s">
         <v>1112</v>
       </c>
@@ -22846,7 +22837,7 @@
       <c r="J505" s="15"/>
       <c r="K505" s="15"/>
     </row>
-    <row r="506" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A506" s="15" t="s">
         <v>1112</v>
       </c>
@@ -22867,7 +22858,7 @@
       <c r="J506" s="15"/>
       <c r="K506" s="15"/>
     </row>
-    <row r="507" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A507" s="13" t="s">
         <v>1118</v>
       </c>
@@ -22885,7 +22876,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="508" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A508" s="13" t="s">
         <v>1118</v>
       </c>
@@ -22905,7 +22896,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="509" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A509" s="13" t="s">
         <v>1118</v>
       </c>
@@ -22925,7 +22916,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="510" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A510" s="13" t="s">
         <v>1118</v>
       </c>
@@ -22943,7 +22934,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="511" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A511" s="13" t="s">
         <v>1118</v>
       </c>
@@ -22961,7 +22952,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="512" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A512" s="13" t="s">
         <v>1118</v>
       </c>
@@ -22979,7 +22970,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="513" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A513" s="13" t="s">
         <v>1118</v>
       </c>
@@ -22997,7 +22988,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="514" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A514" s="13" t="s">
         <v>1118</v>
       </c>
@@ -23017,7 +23008,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="515" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A515" s="13" t="s">
         <v>1118</v>
       </c>
@@ -23037,7 +23028,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="516" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A516" s="12" t="s">
         <v>1135</v>
       </c>
@@ -23060,7 +23051,7 @@
       </c>
       <c r="K516" s="12"/>
     </row>
-    <row r="517" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A517" s="12" t="s">
         <v>1135</v>
       </c>
@@ -23083,7 +23074,7 @@
       </c>
       <c r="K517" s="12"/>
     </row>
-    <row r="518" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A518" s="12" t="s">
         <v>1135</v>
       </c>
@@ -23106,7 +23097,7 @@
       </c>
       <c r="K518" s="12"/>
     </row>
-    <row r="519" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A519" s="12" t="s">
         <v>1135</v>
       </c>
@@ -23129,7 +23120,7 @@
       </c>
       <c r="K519" s="12"/>
     </row>
-    <row r="520" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A520" s="12" t="s">
         <v>1135</v>
       </c>
@@ -23152,7 +23143,7 @@
       </c>
       <c r="K520" s="12"/>
     </row>
-    <row r="521" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A521" s="12" t="s">
         <v>1135</v>
       </c>
@@ -23175,7 +23166,7 @@
       </c>
       <c r="K521" s="12"/>
     </row>
-    <row r="522" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A522" s="12" t="s">
         <v>1135</v>
       </c>
@@ -23198,7 +23189,7 @@
       </c>
       <c r="K522" s="12"/>
     </row>
-    <row r="523" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A523" s="12" t="s">
         <v>1135</v>
       </c>
@@ -23221,7 +23212,7 @@
       </c>
       <c r="K523" s="12"/>
     </row>
-    <row r="524" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A524" s="12" t="s">
         <v>1135</v>
       </c>
@@ -23244,7 +23235,7 @@
       </c>
       <c r="K524" s="12"/>
     </row>
-    <row r="525" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A525" s="12" t="s">
         <v>1135</v>
       </c>
@@ -23267,7 +23258,7 @@
       </c>
       <c r="K525" s="12"/>
     </row>
-    <row r="526" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A526" s="12" t="s">
         <v>1135</v>
       </c>
@@ -23290,7 +23281,7 @@
       </c>
       <c r="K526" s="12"/>
     </row>
-    <row r="527" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A527" s="12" t="s">
         <v>1135</v>
       </c>
@@ -23313,7 +23304,7 @@
       </c>
       <c r="K527" s="12"/>
     </row>
-    <row r="528" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A528" s="12" t="s">
         <v>1135</v>
       </c>
@@ -23336,7 +23327,7 @@
       </c>
       <c r="K528" s="12"/>
     </row>
-    <row r="529" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A529" s="12" t="s">
         <v>1150</v>
       </c>
@@ -23357,7 +23348,7 @@
       <c r="J529" s="12"/>
       <c r="K529" s="12"/>
     </row>
-    <row r="530" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A530" s="12" t="s">
         <v>1150</v>
       </c>
@@ -23378,7 +23369,7 @@
       <c r="J530" s="12"/>
       <c r="K530" s="12"/>
     </row>
-    <row r="531" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A531" s="12" t="s">
         <v>1150</v>
       </c>
@@ -23399,7 +23390,7 @@
       <c r="J531" s="12"/>
       <c r="K531" s="12"/>
     </row>
-    <row r="532" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A532" s="12" t="s">
         <v>1150</v>
       </c>
@@ -23420,7 +23411,7 @@
       <c r="J532" s="12"/>
       <c r="K532" s="12"/>
     </row>
-    <row r="533" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A533" s="12" t="s">
         <v>1150</v>
       </c>
@@ -23441,7 +23432,7 @@
       <c r="J533" s="12"/>
       <c r="K533" s="12"/>
     </row>
-    <row r="534" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A534" s="12" t="s">
         <v>1150</v>
       </c>
@@ -23462,7 +23453,7 @@
       <c r="J534" s="12"/>
       <c r="K534" s="12"/>
     </row>
-    <row r="535" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A535" s="12" t="s">
         <v>1150</v>
       </c>
@@ -23483,7 +23474,7 @@
       <c r="J535" s="12"/>
       <c r="K535" s="12"/>
     </row>
-    <row r="536" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A536" s="12" t="s">
         <v>1150</v>
       </c>
@@ -23504,7 +23495,7 @@
       <c r="J536" s="12"/>
       <c r="K536" s="12"/>
     </row>
-    <row r="537" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A537" s="12" t="s">
         <v>1150</v>
       </c>
@@ -23525,7 +23516,7 @@
       <c r="J537" s="12"/>
       <c r="K537" s="12"/>
     </row>
-    <row r="538" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A538" s="12" t="s">
         <v>1150</v>
       </c>
@@ -23546,7 +23537,7 @@
       <c r="J538" s="12"/>
       <c r="K538" s="12"/>
     </row>
-    <row r="539" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A539" s="12" t="s">
         <v>1150</v>
       </c>
@@ -23567,7 +23558,7 @@
       <c r="J539" s="12"/>
       <c r="K539" s="12"/>
     </row>
-    <row r="540" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A540" s="12" t="s">
         <v>1139</v>
       </c>
@@ -23590,7 +23581,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="541" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A541" s="12" t="s">
         <v>1139</v>
       </c>
@@ -23613,7 +23604,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="542" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A542" s="12" t="s">
         <v>1139</v>
       </c>
@@ -23638,7 +23629,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="543" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A543" s="12" t="s">
         <v>1139</v>
       </c>
@@ -23661,7 +23652,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="544" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A544" s="12" t="s">
         <v>1139</v>
       </c>
@@ -23684,7 +23675,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="545" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A545" s="12" t="s">
         <v>1139</v>
       </c>
@@ -23707,7 +23698,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="546" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A546" s="12" t="s">
         <v>1139</v>
       </c>
@@ -23730,7 +23721,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="547" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A547" s="12" t="s">
         <v>1139</v>
       </c>
@@ -23753,7 +23744,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="548" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A548" s="12" t="s">
         <v>1139</v>
       </c>
@@ -23776,7 +23767,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="549" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A549" s="12" t="s">
         <v>1139</v>
       </c>
@@ -23799,7 +23790,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="550" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A550" s="13" t="s">
         <v>1186</v>
       </c>
@@ -23816,7 +23807,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="551" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A551" s="13" t="s">
         <v>1186</v>
       </c>
@@ -23833,7 +23824,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="552" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A552" s="13" t="s">
         <v>1186</v>
       </c>
@@ -23850,7 +23841,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="553" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A553" s="13" t="s">
         <v>1186</v>
       </c>
@@ -23867,7 +23858,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="554" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A554" s="13" t="s">
         <v>1192</v>
       </c>
@@ -23884,7 +23875,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="555" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A555" s="13" t="s">
         <v>1192</v>
       </c>
@@ -23901,7 +23892,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="556" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A556" s="13" t="s">
         <v>1192</v>
       </c>
@@ -23918,7 +23909,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="557" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A557" s="13" t="s">
         <v>1192</v>
       </c>
@@ -23935,7 +23926,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="558" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A558" s="13" t="s">
         <v>1192</v>
       </c>
@@ -23952,7 +23943,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="559" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A559" s="13" t="s">
         <v>1192</v>
       </c>
@@ -23969,7 +23960,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="560" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A560" s="15" t="s">
         <v>1202</v>
       </c>
@@ -23990,7 +23981,7 @@
       <c r="J560" s="15"/>
       <c r="K560" s="15"/>
     </row>
-    <row r="561" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A561" s="15" t="s">
         <v>1202</v>
       </c>
@@ -24011,7 +24002,7 @@
       <c r="J561" s="15"/>
       <c r="K561" s="15"/>
     </row>
-    <row r="562" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A562" s="15" t="s">
         <v>1202</v>
       </c>
@@ -24032,7 +24023,7 @@
       <c r="J562" s="15"/>
       <c r="K562" s="15"/>
     </row>
-    <row r="563" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A563" s="15" t="s">
         <v>1202</v>
       </c>
@@ -24053,7 +24044,7 @@
       <c r="J563" s="15"/>
       <c r="K563" s="15"/>
     </row>
-    <row r="564" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A564" s="15" t="s">
         <v>1202</v>
       </c>
@@ -24074,7 +24065,7 @@
       <c r="J564" s="15"/>
       <c r="K564" s="15"/>
     </row>
-    <row r="565" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A565" s="15" t="s">
         <v>1202</v>
       </c>
@@ -24095,7 +24086,7 @@
       <c r="J565" s="15"/>
       <c r="K565" s="15"/>
     </row>
-    <row r="566" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A566" s="15" t="s">
         <v>1202</v>
       </c>
@@ -24116,7 +24107,7 @@
       <c r="J566" s="15"/>
       <c r="K566" s="15"/>
     </row>
-    <row r="567" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A567" s="15" t="s">
         <v>1202</v>
       </c>
@@ -24137,7 +24128,7 @@
       <c r="J567" s="15"/>
       <c r="K567" s="15"/>
     </row>
-    <row r="568" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A568" s="15" t="s">
         <v>1202</v>
       </c>
@@ -24158,7 +24149,7 @@
       <c r="J568" s="15"/>
       <c r="K568" s="15"/>
     </row>
-    <row r="569" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A569" s="15" t="s">
         <v>1202</v>
       </c>
@@ -24179,7 +24170,7 @@
       <c r="J569" s="15"/>
       <c r="K569" s="15"/>
     </row>
-    <row r="570" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A570" s="15" t="s">
         <v>1202</v>
       </c>
@@ -24200,7 +24191,7 @@
       <c r="J570" s="15"/>
       <c r="K570" s="15"/>
     </row>
-    <row r="571" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A571" s="15" t="s">
         <v>1202</v>
       </c>
@@ -24221,7 +24212,7 @@
       <c r="J571" s="15"/>
       <c r="K571" s="15"/>
     </row>
-    <row r="572" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A572" s="13" t="s">
         <v>1218</v>
       </c>
@@ -24240,7 +24231,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="573" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A573" s="13" t="s">
         <v>1218</v>
       </c>
@@ -24259,7 +24250,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="574" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A574" s="13" t="s">
         <v>1218</v>
       </c>
@@ -24278,7 +24269,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="575" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A575" s="13" t="s">
         <v>1218</v>
       </c>
@@ -24297,7 +24288,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="576" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A576" s="13" t="s">
         <v>1229</v>
       </c>
@@ -24314,7 +24305,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="577" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A577" s="13" t="s">
         <v>1229</v>
       </c>
@@ -24331,7 +24322,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="578" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A578" s="13" t="s">
         <v>1229</v>
       </c>
@@ -24348,7 +24339,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="579" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A579" s="13" t="s">
         <v>1229</v>
       </c>
@@ -24365,7 +24356,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="580" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A580" s="13" t="s">
         <v>1229</v>
       </c>
@@ -24382,7 +24373,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="581" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A581" s="12" t="s">
         <v>1237</v>
       </c>
@@ -24409,7 +24400,7 @@
       </c>
       <c r="K581" s="12"/>
     </row>
-    <row r="582" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A582" s="12" t="s">
         <v>1237</v>
       </c>
@@ -24436,7 +24427,7 @@
       </c>
       <c r="K582" s="12"/>
     </row>
-    <row r="583" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A583" s="12" t="s">
         <v>1237</v>
       </c>
@@ -24463,7 +24454,7 @@
       </c>
       <c r="K583" s="12"/>
     </row>
-    <row r="584" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A584" s="12" t="s">
         <v>1237</v>
       </c>
@@ -24488,7 +24479,7 @@
       </c>
       <c r="K584" s="12"/>
     </row>
-    <row r="585" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A585" s="12" t="s">
         <v>1237</v>
       </c>
@@ -24513,7 +24504,7 @@
       </c>
       <c r="K585" s="12"/>
     </row>
-    <row r="586" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A586" s="12" t="s">
         <v>1237</v>
       </c>
@@ -24540,7 +24531,7 @@
       </c>
       <c r="K586" s="12"/>
     </row>
-    <row r="587" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A587" s="12" t="s">
         <v>1237</v>
       </c>
@@ -24567,7 +24558,7 @@
       </c>
       <c r="K587" s="12"/>
     </row>
-    <row r="588" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A588" s="12" t="s">
         <v>1237</v>
       </c>
@@ -24594,7 +24585,7 @@
       </c>
       <c r="K588" s="12"/>
     </row>
-    <row r="589" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A589" s="12" t="s">
         <v>1237</v>
       </c>
@@ -24621,7 +24612,7 @@
       </c>
       <c r="K589" s="12"/>
     </row>
-    <row r="590" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A590" s="12" t="s">
         <v>1237</v>
       </c>
@@ -24646,7 +24637,7 @@
       </c>
       <c r="K590" s="12"/>
     </row>
-    <row r="591" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A591" s="12" t="s">
         <v>1237</v>
       </c>
@@ -24673,7 +24664,7 @@
       </c>
       <c r="K591" s="12"/>
     </row>
-    <row r="592" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A592" s="12" t="s">
         <v>1237</v>
       </c>
@@ -24700,7 +24691,7 @@
       </c>
       <c r="K592" s="12"/>
     </row>
-    <row r="593" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A593" s="12" t="s">
         <v>1241</v>
       </c>
@@ -24725,7 +24716,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="594" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A594" s="12" t="s">
         <v>1241</v>
       </c>
@@ -24750,7 +24741,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="595" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A595" s="12" t="s">
         <v>1241</v>
       </c>
@@ -24775,7 +24766,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="596" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A596" s="12" t="s">
         <v>1241</v>
       </c>
@@ -24800,7 +24791,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="597" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A597" s="12" t="s">
         <v>1241</v>
       </c>
@@ -24825,7 +24816,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="598" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A598" s="12" t="s">
         <v>1241</v>
       </c>
@@ -24850,7 +24841,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="599" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A599" s="12" t="s">
         <v>1241</v>
       </c>
@@ -24875,7 +24866,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="600" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A600" s="13" t="s">
         <v>1281</v>
       </c>
@@ -24893,7 +24884,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="601" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A601" s="13" t="s">
         <v>1281</v>
       </c>
@@ -24911,7 +24902,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="602" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A602" s="13" t="s">
         <v>1281</v>
       </c>
@@ -24929,7 +24920,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="603" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A603" s="13" t="s">
         <v>1281</v>
       </c>
@@ -24947,7 +24938,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="604" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A604" s="13" t="s">
         <v>1288</v>
       </c>
@@ -24964,7 +24955,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="605" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A605" s="15" t="s">
         <v>1290</v>
       </c>
@@ -24985,7 +24976,7 @@
       <c r="J605" s="15"/>
       <c r="K605" s="15"/>
     </row>
-    <row r="606" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A606" s="15" t="s">
         <v>1290</v>
       </c>
@@ -25006,7 +24997,7 @@
       <c r="J606" s="15"/>
       <c r="K606" s="15"/>
     </row>
-    <row r="607" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A607" s="15" t="s">
         <v>1290</v>
       </c>
@@ -25027,7 +25018,7 @@
       <c r="J607" s="15"/>
       <c r="K607" s="15"/>
     </row>
-    <row r="608" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A608" s="15" t="s">
         <v>1296</v>
       </c>
@@ -25050,7 +25041,7 @@
       </c>
       <c r="K608" s="15"/>
     </row>
-    <row r="609" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A609" s="15" t="s">
         <v>1296</v>
       </c>
@@ -25073,7 +25064,7 @@
       </c>
       <c r="K609" s="15"/>
     </row>
-    <row r="610" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A610" s="15" t="s">
         <v>1296</v>
       </c>
@@ -25098,7 +25089,7 @@
       </c>
       <c r="K610" s="15"/>
     </row>
-    <row r="611" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A611" s="15" t="s">
         <v>1296</v>
       </c>
@@ -25121,7 +25112,7 @@
       </c>
       <c r="K611" s="15"/>
     </row>
-    <row r="612" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A612" s="15" t="s">
         <v>1296</v>
       </c>
@@ -25146,7 +25137,7 @@
       </c>
       <c r="K612" s="15"/>
     </row>
-    <row r="613" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A613" s="15" t="s">
         <v>1296</v>
       </c>
@@ -25169,7 +25160,7 @@
       </c>
       <c r="K613" s="15"/>
     </row>
-    <row r="614" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A614" s="15" t="s">
         <v>1299</v>
       </c>
@@ -25192,7 +25183,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="615" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A615" s="15" t="s">
         <v>1299</v>
       </c>
@@ -25215,7 +25206,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="616" spans="1:11" s="13" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" s="13" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A616" s="13" t="s">
         <v>1314</v>
       </c>
@@ -25235,7 +25226,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="617" spans="1:11" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A617" s="13" t="s">
         <v>1314</v>
       </c>
@@ -25255,7 +25246,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="618" spans="1:11" s="13" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" s="13" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A618" s="13" t="s">
         <v>1314</v>
       </c>
@@ -25275,7 +25266,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="619" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A619" s="15" t="s">
         <v>1325</v>
       </c>
@@ -25298,7 +25289,7 @@
       <c r="J619" s="15"/>
       <c r="K619" s="15"/>
     </row>
-    <row r="620" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A620" s="15" t="s">
         <v>1325</v>
       </c>
@@ -25319,7 +25310,7 @@
       <c r="J620" s="15"/>
       <c r="K620" s="15"/>
     </row>
-    <row r="621" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A621" s="15" t="s">
         <v>1325</v>
       </c>
@@ -25342,7 +25333,7 @@
       <c r="J621" s="15"/>
       <c r="K621" s="15"/>
     </row>
-    <row r="622" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A622" s="15" t="s">
         <v>1325</v>
       </c>
@@ -25363,7 +25354,7 @@
       <c r="J622" s="15"/>
       <c r="K622" s="15"/>
     </row>
-    <row r="623" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A623" s="15" t="s">
         <v>1325</v>
       </c>
@@ -25384,7 +25375,7 @@
       <c r="J623" s="15"/>
       <c r="K623" s="15"/>
     </row>
-    <row r="624" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A624" s="15" t="s">
         <v>1325</v>
       </c>
@@ -25405,7 +25396,7 @@
       <c r="J624" s="15"/>
       <c r="K624" s="15"/>
     </row>
-    <row r="625" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A625" s="15" t="s">
         <v>1325</v>
       </c>
@@ -25426,7 +25417,7 @@
       <c r="J625" s="15"/>
       <c r="K625" s="15"/>
     </row>
-    <row r="626" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A626" s="15" t="s">
         <v>1325</v>
       </c>
@@ -25449,7 +25440,7 @@
       <c r="J626" s="15"/>
       <c r="K626" s="15"/>
     </row>
-    <row r="627" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A627" s="15" t="s">
         <v>1325</v>
       </c>
@@ -25470,7 +25461,7 @@
       <c r="J627" s="15"/>
       <c r="K627" s="15"/>
     </row>
-    <row r="628" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A628" s="15" t="s">
         <v>1325</v>
       </c>
@@ -25493,7 +25484,7 @@
       <c r="J628" s="15"/>
       <c r="K628" s="15"/>
     </row>
-    <row r="629" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A629" s="15" t="s">
         <v>1325</v>
       </c>
@@ -25516,7 +25507,7 @@
       <c r="J629" s="15"/>
       <c r="K629" s="15"/>
     </row>
-    <row r="630" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A630" s="13" t="s">
         <v>1352</v>
       </c>
@@ -25531,7 +25522,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="631" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A631" s="13" t="s">
         <v>1353</v>
       </c>
@@ -25550,7 +25541,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="632" spans="1:11" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A632" s="13" t="s">
         <v>1353</v>
       </c>
@@ -25569,7 +25560,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="633" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A633" s="13" t="s">
         <v>1353</v>
       </c>
@@ -25588,7 +25579,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="634" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A634" s="13" t="s">
         <v>1353</v>
       </c>
@@ -25607,7 +25598,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="635" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A635" s="13" t="s">
         <v>1353</v>
       </c>
@@ -25626,7 +25617,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="636" spans="1:11" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A636" s="13" t="s">
         <v>1353</v>
       </c>
@@ -25645,7 +25636,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="637" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A637" s="15" t="s">
         <v>1353</v>
       </c>
@@ -25667,7 +25658,7 @@
       <c r="J637" s="23"/>
       <c r="K637" s="23"/>
     </row>
-    <row r="638" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A638" s="13" t="s">
         <v>1353</v>
       </c>
@@ -25686,7 +25677,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="639" spans="1:11" s="13" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A639" s="13" t="s">
         <v>1372</v>
       </c>
@@ -25706,7 +25697,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="640" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A640" s="13" t="s">
         <v>1372</v>
       </c>
@@ -25725,7 +25716,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="641" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A641" s="13" t="s">
         <v>1372</v>
       </c>
@@ -25744,7 +25735,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="642" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A642" s="13" t="s">
         <v>1372</v>
       </c>
@@ -25763,7 +25754,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="643" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A643" s="13" t="s">
         <v>1372</v>
       </c>
@@ -25783,7 +25774,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="644" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A644" s="13" t="s">
         <v>1372</v>
       </c>
@@ -25802,7 +25793,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="645" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A645" s="13" t="s">
         <v>1372</v>
       </c>
@@ -25821,7 +25812,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="646" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A646" s="13" t="s">
         <v>1387</v>
       </c>
@@ -25840,7 +25831,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="647" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A647" s="13" t="s">
         <v>1387</v>
       </c>
@@ -25859,7 +25850,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="648" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A648" s="13" t="s">
         <v>1387</v>
       </c>
@@ -25878,7 +25869,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="649" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A649" s="13" t="s">
         <v>1387</v>
       </c>
@@ -25897,7 +25888,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="650" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A650" s="13" t="s">
         <v>1387</v>
       </c>
@@ -25916,7 +25907,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="651" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A651" s="13" t="s">
         <v>1402</v>
       </c>
@@ -25935,7 +25926,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="652" spans="1:9" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:9" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A652" s="13" t="s">
         <v>1402</v>
       </c>
@@ -25954,7 +25945,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="653" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A653" s="13" t="s">
         <v>1402</v>
       </c>
@@ -25973,7 +25964,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="654" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A654" s="13" t="s">
         <v>1402</v>
       </c>
@@ -25992,7 +25983,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="655" spans="1:9" s="13" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:9" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A655" s="13" t="s">
         <v>1402</v>
       </c>
@@ -26011,7 +26002,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="656" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A656" s="13" t="s">
         <v>1402</v>
       </c>
@@ -26030,7 +26021,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="657" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A657" s="13" t="s">
         <v>1402</v>
       </c>
@@ -26049,7 +26040,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="658" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A658" s="13" t="s">
         <v>1402</v>
       </c>
@@ -26068,7 +26059,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="659" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A659" s="13" t="s">
         <v>1402</v>
       </c>
@@ -26087,7 +26078,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="660" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A660" s="13" t="s">
         <v>1402</v>
       </c>
@@ -26106,7 +26097,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="661" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A661" s="13" t="s">
         <v>1402</v>
       </c>
@@ -26125,7 +26116,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="662" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A662" s="13" t="s">
         <v>1425</v>
       </c>
@@ -26144,7 +26135,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="663" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A663" s="13" t="s">
         <v>1425</v>
       </c>
@@ -26163,7 +26154,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="664" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A664" s="13" t="s">
         <v>1425</v>
       </c>
@@ -26182,7 +26173,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="665" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A665" s="13" t="s">
         <v>1425</v>
       </c>
@@ -26201,7 +26192,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="666" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A666" s="13" t="s">
         <v>1425</v>
       </c>
@@ -26220,7 +26211,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="667" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A667" s="13" t="s">
         <v>1425</v>
       </c>
@@ -26239,7 +26230,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="668" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A668" s="13" t="s">
         <v>1425</v>
       </c>
@@ -26258,7 +26249,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="669" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A669" s="13" t="s">
         <v>1425</v>
       </c>
@@ -26277,7 +26268,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="670" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A670" s="13" t="s">
         <v>1425</v>
       </c>
@@ -26296,7 +26287,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="671" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A671" s="13" t="s">
         <v>1425</v>
       </c>
@@ -26315,7 +26306,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="672" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A672" s="13" t="s">
         <v>1425</v>
       </c>
@@ -26334,7 +26325,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="673" spans="1:9" s="13" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:9" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A673" s="13" t="s">
         <v>1425</v>
       </c>
@@ -26353,7 +26344,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="674" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A674" s="13" t="s">
         <v>1425</v>
       </c>
@@ -26372,7 +26363,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="675" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A675" s="13" t="s">
         <v>1425</v>
       </c>
@@ -26391,7 +26382,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="676" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A676" s="13" t="s">
         <v>1425</v>
       </c>
@@ -26410,7 +26401,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="677" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A677" s="13" t="s">
         <v>1425</v>
       </c>
@@ -26429,7 +26420,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="678" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A678" s="13" t="s">
         <v>1425</v>
       </c>
@@ -26448,7 +26439,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="679" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A679" s="13" t="s">
         <v>1425</v>
       </c>
@@ -26467,7 +26458,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="680" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A680" s="13" t="s">
         <v>1425</v>
       </c>
@@ -26486,7 +26477,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="681" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A681" s="13" t="s">
         <v>1425</v>
       </c>
@@ -26505,7 +26496,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="682" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A682" s="13" t="s">
         <v>1425</v>
       </c>
@@ -26524,7 +26515,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="683" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A683" s="13" t="s">
         <v>1425</v>
       </c>
@@ -26543,7 +26534,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="684" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A684" s="13" t="s">
         <v>1425</v>
       </c>
@@ -26562,7 +26553,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="685" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A685" s="13" t="s">
         <v>1425</v>
       </c>
@@ -26581,7 +26572,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="686" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A686" s="13" t="s">
         <v>1425</v>
       </c>
@@ -26600,7 +26591,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="687" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A687" s="13" t="s">
         <v>1425</v>
       </c>
@@ -26619,7 +26610,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="688" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A688" s="13" t="s">
         <v>1425</v>
       </c>
@@ -26638,7 +26629,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="689" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A689" s="13" t="s">
         <v>1477</v>
       </c>
@@ -26663,7 +26654,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="690" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A690" s="13" t="s">
         <v>1477</v>
       </c>
@@ -26688,7 +26679,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="691" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A691" s="13" t="s">
         <v>1477</v>
       </c>
@@ -26713,7 +26704,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="692" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A692" s="13" t="s">
         <v>1477</v>
       </c>
@@ -26738,7 +26729,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="693" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A693" s="13" t="s">
         <v>1477</v>
       </c>
@@ -26763,7 +26754,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="694" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A694" s="13" t="s">
         <v>1477</v>
       </c>
@@ -26788,7 +26779,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="695" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A695" s="13" t="s">
         <v>1481</v>
       </c>
@@ -26810,7 +26801,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="696" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A696" s="13" t="s">
         <v>1481</v>
       </c>
@@ -26832,7 +26823,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="697" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A697" s="13" t="s">
         <v>1481</v>
       </c>
@@ -26854,7 +26845,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="698" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A698" s="13" t="s">
         <v>1481</v>
       </c>
@@ -26876,7 +26867,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="699" spans="1:11" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A699" s="13" t="s">
         <v>1481</v>
       </c>
@@ -26898,7 +26889,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="700" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A700" s="13" t="s">
         <v>1481</v>
       </c>
@@ -26920,7 +26911,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="701" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A701" s="13" t="s">
         <v>1481</v>
       </c>
@@ -26942,7 +26933,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="702" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A702" s="13" t="s">
         <v>1481</v>
       </c>
@@ -26964,7 +26955,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="703" spans="1:11" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A703" s="13" t="s">
         <v>1481</v>
       </c>
@@ -26986,7 +26977,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="704" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A704" s="13" t="s">
         <v>1512</v>
       </c>
@@ -27005,7 +26996,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="705" spans="1:9" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:9" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A705" s="13" t="s">
         <v>1512</v>
       </c>
@@ -27024,7 +27015,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="706" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A706" s="13" t="s">
         <v>1512</v>
       </c>
@@ -27043,7 +27034,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="707" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A707" s="13" t="s">
         <v>1512</v>
       </c>
@@ -27062,7 +27053,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="708" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A708" s="13" t="s">
         <v>1512</v>
       </c>
@@ -27081,7 +27072,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="709" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A709" s="13" t="s">
         <v>1512</v>
       </c>
@@ -27100,7 +27091,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="710" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A710" s="13" t="s">
         <v>1512</v>
       </c>
@@ -27119,7 +27110,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="711" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A711" s="13" t="s">
         <v>1522</v>
       </c>
@@ -27135,7 +27126,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="712" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A712" s="13" t="s">
         <v>1524</v>
       </c>
@@ -27154,7 +27145,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="713" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A713" s="13" t="s">
         <v>1524</v>
       </c>
@@ -27171,7 +27162,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="714" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A714" s="13" t="s">
         <v>1524</v>
       </c>
@@ -27190,7 +27181,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="715" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A715" s="13" t="s">
         <v>1524</v>
       </c>
@@ -27209,7 +27200,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="716" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A716" s="13" t="s">
         <v>1524</v>
       </c>
@@ -27228,7 +27219,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="717" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A717" s="13" t="s">
         <v>1524</v>
       </c>
@@ -27247,7 +27238,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="718" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A718" s="13" t="s">
         <v>1524</v>
       </c>
@@ -27264,7 +27255,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="719" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A719" s="13" t="s">
         <v>1524</v>
       </c>
@@ -27283,7 +27274,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="720" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A720" s="13" t="s">
         <v>1524</v>
       </c>
@@ -27302,7 +27293,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="721" spans="1:9" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:9" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A721" s="13" t="s">
         <v>1524</v>
       </c>
@@ -27321,7 +27312,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="722" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A722" s="13" t="s">
         <v>1524</v>
       </c>
@@ -27338,7 +27329,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="723" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A723" s="13" t="s">
         <v>1524</v>
       </c>
@@ -27355,7 +27346,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="724" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A724" s="13" t="s">
         <v>1524</v>
       </c>
@@ -27374,7 +27365,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="725" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A725" s="13" t="s">
         <v>1524</v>
       </c>
@@ -27393,7 +27384,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="726" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A726" s="13" t="s">
         <v>1524</v>
       </c>
@@ -27412,7 +27403,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="727" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A727" s="13" t="s">
         <v>1558</v>
       </c>
@@ -27431,7 +27422,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="728" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A728" s="13" t="s">
         <v>1558</v>
       </c>
@@ -27450,7 +27441,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="729" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A729" s="13" t="s">
         <v>1558</v>
       </c>
@@ -27469,7 +27460,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="730" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A730" s="13" t="s">
         <v>1558</v>
       </c>
@@ -27488,7 +27479,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="731" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A731" s="13" t="s">
         <v>1558</v>
       </c>
@@ -27507,7 +27498,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="732" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A732" s="13" t="s">
         <v>1558</v>
       </c>
@@ -27526,7 +27517,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="733" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A733" s="13" t="s">
         <v>1558</v>
       </c>
@@ -27545,7 +27536,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="734" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A734" s="13" t="s">
         <v>1558</v>
       </c>
@@ -27564,7 +27555,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="735" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A735" s="13" t="s">
         <v>1558</v>
       </c>
@@ -27583,7 +27574,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="736" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A736" s="13" t="s">
         <v>1558</v>
       </c>
@@ -27602,7 +27593,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="737" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A737" s="13" t="s">
         <v>1558</v>
       </c>
@@ -27621,7 +27612,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="738" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A738" s="13" t="s">
         <v>1558</v>
       </c>
@@ -27640,7 +27631,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="739" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A739" s="13" t="s">
         <v>1558</v>
       </c>
@@ -27659,7 +27650,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="740" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A740" s="13" t="s">
         <v>1558</v>
       </c>
@@ -27678,7 +27669,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="741" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A741" s="13" t="s">
         <v>1558</v>
       </c>
@@ -27697,7 +27688,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="742" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A742" s="13" t="s">
         <v>1558</v>
       </c>
@@ -27716,7 +27707,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="743" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A743" s="13" t="s">
         <v>1558</v>
       </c>
@@ -27735,7 +27726,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="744" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A744" s="13" t="s">
         <v>1558</v>
       </c>
@@ -27754,7 +27745,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="745" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A745" s="13" t="s">
         <v>1558</v>
       </c>
@@ -27773,7 +27764,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="746" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A746" s="15" t="s">
         <v>1610</v>
       </c>
@@ -27800,7 +27791,7 @@
       </c>
       <c r="K746" s="15"/>
     </row>
-    <row r="747" spans="1:11" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:11" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A747" s="15" t="s">
         <v>1610</v>
       </c>
@@ -27827,7 +27818,7 @@
       </c>
       <c r="K747" s="15"/>
     </row>
-    <row r="748" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A748" s="15" t="s">
         <v>1610</v>
       </c>
@@ -27854,7 +27845,7 @@
       </c>
       <c r="K748" s="15"/>
     </row>
-    <row r="749" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A749" s="15" t="s">
         <v>1610</v>
       </c>
@@ -27881,7 +27872,7 @@
       </c>
       <c r="K749" s="15"/>
     </row>
-    <row r="750" spans="1:11" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:11" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A750" s="15" t="s">
         <v>1610</v>
       </c>
@@ -27908,7 +27899,7 @@
       </c>
       <c r="K750" s="15"/>
     </row>
-    <row r="751" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A751" s="15" t="s">
         <v>1610</v>
       </c>
@@ -27935,7 +27926,7 @@
       </c>
       <c r="K751" s="15"/>
     </row>
-    <row r="752" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A752" s="15" t="s">
         <v>1610</v>
       </c>
@@ -27962,7 +27953,7 @@
       </c>
       <c r="K752" s="15"/>
     </row>
-    <row r="753" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A753" s="15" t="s">
         <v>1610</v>
       </c>
@@ -27989,7 +27980,7 @@
       </c>
       <c r="K753" s="15"/>
     </row>
-    <row r="754" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A754" s="15" t="s">
         <v>1610</v>
       </c>
@@ -28016,7 +28007,7 @@
       </c>
       <c r="K754" s="15"/>
     </row>
-    <row r="755" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A755" s="15" t="s">
         <v>1610</v>
       </c>
@@ -28043,7 +28034,7 @@
       </c>
       <c r="K755" s="15"/>
     </row>
-    <row r="756" spans="1:11" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:11" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A756" s="15" t="s">
         <v>1610</v>
       </c>
@@ -28070,7 +28061,7 @@
       </c>
       <c r="K756" s="15"/>
     </row>
-    <row r="757" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A757" s="15" t="s">
         <v>1610</v>
       </c>
@@ -28097,7 +28088,7 @@
       </c>
       <c r="K757" s="15"/>
     </row>
-    <row r="758" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A758" s="15" t="s">
         <v>1610</v>
       </c>
@@ -28122,7 +28113,7 @@
       </c>
       <c r="K758" s="15"/>
     </row>
-    <row r="759" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A759" s="15" t="s">
         <v>1610</v>
       </c>
@@ -28149,7 +28140,7 @@
       </c>
       <c r="K759" s="15"/>
     </row>
-    <row r="760" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A760" s="13" t="s">
         <v>1650</v>
       </c>
@@ -28166,7 +28157,7 @@
       <c r="G760" s="16"/>
       <c r="K760" s="15"/>
     </row>
-    <row r="761" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A761" s="13" t="s">
         <v>1650</v>
       </c>
@@ -28183,7 +28174,7 @@
       <c r="G761" s="16"/>
       <c r="K761" s="15"/>
     </row>
-    <row r="762" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A762" s="13" t="s">
         <v>1650</v>
       </c>
@@ -28200,7 +28191,7 @@
       <c r="G762" s="16"/>
       <c r="K762" s="15"/>
     </row>
-    <row r="763" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A763" s="13" t="s">
         <v>1650</v>
       </c>
@@ -28217,7 +28208,7 @@
       <c r="G763" s="16"/>
       <c r="K763" s="15"/>
     </row>
-    <row r="764" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A764" s="13" t="s">
         <v>1615</v>
       </c>
@@ -28239,7 +28230,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="765" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A765" s="13" t="s">
         <v>1615</v>
       </c>
@@ -28261,7 +28252,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="766" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A766" s="13" t="s">
         <v>1615</v>
       </c>
@@ -28283,7 +28274,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="767" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A767" s="13" t="s">
         <v>1615</v>
       </c>
@@ -28305,7 +28296,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="768" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A768" s="13" t="s">
         <v>1615</v>
       </c>
@@ -28327,7 +28318,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="769" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A769" s="13" t="s">
         <v>1615</v>
       </c>
@@ -28349,7 +28340,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="770" spans="1:11" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:11" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A770" s="13" t="s">
         <v>1615</v>
       </c>
@@ -28371,7 +28362,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="771" spans="1:11" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:11" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A771" s="13" t="s">
         <v>1669</v>
       </c>
@@ -28390,7 +28381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="772" spans="1:11" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:11" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A772" s="13" t="s">
         <v>1669</v>
       </c>
@@ -28409,7 +28400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="773" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A773" s="13" t="s">
         <v>1669</v>
       </c>
@@ -28428,7 +28419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="774" spans="1:11" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:11" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A774" s="13" t="s">
         <v>1677</v>
       </c>
@@ -28447,7 +28438,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="775" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A775" s="15" t="s">
         <v>1680</v>
       </c>
@@ -28468,7 +28459,7 @@
       <c r="J775" s="15"/>
       <c r="K775" s="15"/>
     </row>
-    <row r="776" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A776" s="15" t="s">
         <v>1680</v>
       </c>
@@ -29017,7 +29008,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="800" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A800" s="13" t="s">
         <v>1731</v>
       </c>
@@ -29036,7 +29027,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="801" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A801" s="13" t="s">
         <v>1731</v>
       </c>
@@ -29055,7 +29046,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="802" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A802" s="13" t="s">
         <v>1731</v>
       </c>
@@ -29074,7 +29065,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="803" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A803" s="13" t="s">
         <v>1731</v>
       </c>
@@ -29093,7 +29084,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="804" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A804" s="13" t="s">
         <v>1731</v>
       </c>
@@ -29112,7 +29103,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="805" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A805" s="13" t="s">
         <v>1743</v>
       </c>
@@ -29130,7 +29121,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="806" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A806" s="13" t="s">
         <v>1743</v>
       </c>
@@ -29148,7 +29139,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="807" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A807" s="13" t="s">
         <v>1743</v>
       </c>
@@ -29166,7 +29157,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="808" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A808" s="13" t="s">
         <v>1743</v>
       </c>
@@ -29184,7 +29175,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="809" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A809" s="13" t="s">
         <v>1743</v>
       </c>
@@ -29202,7 +29193,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="810" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A810" s="13" t="s">
         <v>1743</v>
       </c>
@@ -29220,7 +29211,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="811" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A811" s="13" t="s">
         <v>1743</v>
       </c>
@@ -29238,7 +29229,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="812" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A812" s="13" t="s">
         <v>1743</v>
       </c>
@@ -29256,7 +29247,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="813" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A813" s="13" t="s">
         <v>1743</v>
       </c>
@@ -29274,7 +29265,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="814" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A814" s="13" t="s">
         <v>1743</v>
       </c>
@@ -29292,7 +29283,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="815" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A815" s="13" t="s">
         <v>1743</v>
       </c>
@@ -29312,7 +29303,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="816" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A816" s="13" t="s">
         <v>1743</v>
       </c>
@@ -29330,7 +29321,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="817" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A817" s="13" t="s">
         <v>1743</v>
       </c>
@@ -29342,7 +29333,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="818" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A818" s="12" t="s">
         <v>1769</v>
       </c>
@@ -29365,7 +29356,7 @@
       <c r="J818" s="12"/>
       <c r="K818" s="12"/>
     </row>
-    <row r="819" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A819" s="12" t="s">
         <v>1769</v>
       </c>
@@ -29388,7 +29379,7 @@
       <c r="J819" s="12"/>
       <c r="K819" s="12"/>
     </row>
-    <row r="820" spans="1:11" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:11" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A820" s="12" t="s">
         <v>1769</v>
       </c>
@@ -29411,7 +29402,7 @@
       <c r="J820" s="12"/>
       <c r="K820" s="12"/>
     </row>
-    <row r="821" spans="1:11" s="13" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:11" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A821" s="12" t="s">
         <v>1769</v>
       </c>
@@ -29434,7 +29425,7 @@
       <c r="J821" s="12"/>
       <c r="K821" s="12"/>
     </row>
-    <row r="822" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A822" s="12" t="s">
         <v>1769</v>
       </c>
@@ -29457,7 +29448,7 @@
       <c r="J822" s="12"/>
       <c r="K822" s="12"/>
     </row>
-    <row r="823" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A823" s="12" t="s">
         <v>1769</v>
       </c>
@@ -29480,7 +29471,7 @@
       <c r="J823" s="12"/>
       <c r="K823" s="12"/>
     </row>
-    <row r="824" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A824" s="12" t="s">
         <v>1769</v>
       </c>
@@ -29503,7 +29494,7 @@
       <c r="J824" s="12"/>
       <c r="K824" s="12"/>
     </row>
-    <row r="825" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A825" s="12" t="s">
         <v>1769</v>
       </c>
@@ -29526,7 +29517,7 @@
       <c r="J825" s="12"/>
       <c r="K825" s="12"/>
     </row>
-    <row r="826" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A826" s="12" t="s">
         <v>1782</v>
       </c>
@@ -29553,7 +29544,7 @@
       </c>
       <c r="K826" s="12"/>
     </row>
-    <row r="827" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A827" s="12" t="s">
         <v>1782</v>
       </c>
@@ -29580,7 +29571,7 @@
       </c>
       <c r="K827" s="12"/>
     </row>
-    <row r="828" spans="1:11" s="13" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:11" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A828" s="12" t="s">
         <v>1782</v>
       </c>
@@ -29607,7 +29598,7 @@
       </c>
       <c r="K828" s="12"/>
     </row>
-    <row r="829" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A829" s="12" t="s">
         <v>1782</v>
       </c>
@@ -29634,7 +29625,7 @@
       </c>
       <c r="K829" s="12"/>
     </row>
-    <row r="830" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A830" s="12" t="s">
         <v>1798</v>
       </c>
@@ -29661,7 +29652,7 @@
       </c>
       <c r="K830" s="12"/>
     </row>
-    <row r="831" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A831" s="12" t="s">
         <v>1798</v>
       </c>
@@ -29688,7 +29679,7 @@
       </c>
       <c r="K831" s="12"/>
     </row>
-    <row r="832" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A832" s="12" t="s">
         <v>1798</v>
       </c>
@@ -29715,7 +29706,7 @@
       </c>
       <c r="K832" s="12"/>
     </row>
-    <row r="833" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A833" s="12" t="s">
         <v>1798</v>
       </c>
@@ -29742,7 +29733,7 @@
       </c>
       <c r="K833" s="12"/>
     </row>
-    <row r="834" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A834" s="12" t="s">
         <v>1798</v>
       </c>
@@ -29769,7 +29760,7 @@
       </c>
       <c r="K834" s="12"/>
     </row>
-    <row r="835" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A835" s="12" t="s">
         <v>1798</v>
       </c>
@@ -29796,7 +29787,7 @@
       </c>
       <c r="K835" s="12"/>
     </row>
-    <row r="836" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A836" s="12" t="s">
         <v>1798</v>
       </c>
@@ -29823,7 +29814,7 @@
       </c>
       <c r="K836" s="12"/>
     </row>
-    <row r="837" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A837" s="12" t="s">
         <v>1798</v>
       </c>
@@ -29850,7 +29841,7 @@
       </c>
       <c r="K837" s="12"/>
     </row>
-    <row r="838" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A838" s="12" t="s">
         <v>1798</v>
       </c>
@@ -29877,7 +29868,7 @@
       </c>
       <c r="K838" s="12"/>
     </row>
-    <row r="839" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A839" s="12" t="s">
         <v>1798</v>
       </c>
@@ -29904,7 +29895,7 @@
       </c>
       <c r="K839" s="12"/>
     </row>
-    <row r="840" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A840" s="12" t="s">
         <v>1798</v>
       </c>
@@ -29931,7 +29922,7 @@
       </c>
       <c r="K840" s="12"/>
     </row>
-    <row r="841" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A841" s="12" t="s">
         <v>1798</v>
       </c>
@@ -29958,7 +29949,7 @@
       </c>
       <c r="K841" s="12"/>
     </row>
-    <row r="842" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A842" s="12" t="s">
         <v>1821</v>
       </c>
@@ -29983,7 +29974,7 @@
       <c r="J842" s="12"/>
       <c r="K842" s="12"/>
     </row>
-    <row r="843" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A843" s="12" t="s">
         <v>1821</v>
       </c>
@@ -30008,7 +29999,7 @@
       <c r="J843" s="12"/>
       <c r="K843" s="12"/>
     </row>
-    <row r="844" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A844" s="12" t="s">
         <v>1821</v>
       </c>
@@ -30033,7 +30024,7 @@
       <c r="J844" s="12"/>
       <c r="K844" s="12"/>
     </row>
-    <row r="845" spans="1:11" s="13" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:11" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A845" s="12" t="s">
         <v>1786</v>
       </c>
@@ -30060,7 +30051,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="846" spans="1:11" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:11" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A846" s="12" t="s">
         <v>1786</v>
       </c>
@@ -30087,7 +30078,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="847" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A847" s="12" t="s">
         <v>1786</v>
       </c>
@@ -30114,7 +30105,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="848" spans="1:11" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:11" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A848" s="12" t="s">
         <v>1786</v>
       </c>
@@ -30141,7 +30132,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="849" spans="1:11" s="13" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:11" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A849" s="12" t="s">
         <v>1786</v>
       </c>
@@ -30168,7 +30159,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="850" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A850" s="12" t="s">
         <v>1786</v>
       </c>
@@ -30195,7 +30186,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="851" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A851" s="12" t="s">
         <v>1842</v>
       </c>
@@ -30216,7 +30207,7 @@
       <c r="J851" s="12"/>
       <c r="K851" s="12"/>
     </row>
-    <row r="852" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A852" s="12" t="s">
         <v>1842</v>
       </c>
@@ -30237,7 +30228,7 @@
       <c r="J852" s="12"/>
       <c r="K852" s="12"/>
     </row>
-    <row r="853" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A853" s="12" t="s">
         <v>1842</v>
       </c>
@@ -30258,7 +30249,7 @@
       <c r="J853" s="12"/>
       <c r="K853" s="12"/>
     </row>
-    <row r="854" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A854" s="12" t="s">
         <v>1801</v>
       </c>
@@ -30283,7 +30274,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="855" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A855" s="12" t="s">
         <v>1801</v>
       </c>
@@ -30308,7 +30299,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="856" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A856" s="12" t="s">
         <v>1801</v>
       </c>
@@ -30333,7 +30324,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="857" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A857" s="12" t="s">
         <v>1801</v>
       </c>
@@ -30358,7 +30349,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="858" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A858" s="12" t="s">
         <v>1801</v>
       </c>
@@ -30383,7 +30374,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="859" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A859" s="12" t="s">
         <v>1801</v>
       </c>
@@ -30408,7 +30399,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="860" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A860" s="13" t="s">
         <v>1855</v>
       </c>
@@ -30422,7 +30413,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="861" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A861" s="13" t="s">
         <v>1857</v>
       </c>
@@ -30441,7 +30432,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="862" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A862" s="13" t="s">
         <v>1857</v>
       </c>
@@ -30460,7 +30451,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="863" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A863" s="13" t="s">
         <v>1862</v>
       </c>
@@ -30479,7 +30470,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="864" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A864" s="13" t="s">
         <v>1862</v>
       </c>
@@ -30498,7 +30489,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="865" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A865" s="13" t="s">
         <v>1862</v>
       </c>
@@ -30517,7 +30508,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="866" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A866" s="13" t="s">
         <v>1862</v>
       </c>
@@ -30536,7 +30527,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="867" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A867" s="13" t="s">
         <v>1862</v>
       </c>
@@ -30555,7 +30546,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="868" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A868" s="13" t="s">
         <v>1862</v>
       </c>
@@ -30574,7 +30565,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="869" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A869" s="13" t="s">
         <v>1877</v>
       </c>
@@ -30593,7 +30584,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="870" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A870" s="13" t="s">
         <v>1877</v>
       </c>
@@ -30612,7 +30603,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="871" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A871" s="13" t="s">
         <v>1877</v>
       </c>
@@ -30631,7 +30622,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="872" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A872" s="13" t="s">
         <v>1877</v>
       </c>
@@ -30650,7 +30641,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="873" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A873" s="13" t="s">
         <v>1890</v>
       </c>
@@ -30667,7 +30658,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="874" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A874" s="13" t="s">
         <v>1890</v>
       </c>
@@ -30684,7 +30675,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="875" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A875" s="13" t="s">
         <v>1890</v>
       </c>
@@ -30701,7 +30692,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="876" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A876" s="13" t="s">
         <v>1893</v>
       </c>
@@ -30718,7 +30709,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="877" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A877" s="13" t="s">
         <v>1893</v>
       </c>
@@ -30735,7 +30726,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="878" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A878" s="13" t="s">
         <v>1893</v>
       </c>
@@ -30754,7 +30745,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="879" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A879" s="13" t="s">
         <v>1893</v>
       </c>
@@ -30771,7 +30762,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="880" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A880" s="13" t="s">
         <v>1893</v>
       </c>
@@ -30788,7 +30779,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="881" spans="1:12" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:12" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A881" s="13" t="s">
         <v>1900</v>
       </c>
@@ -30807,7 +30798,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="882" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A882" s="13" t="s">
         <v>1900</v>
       </c>
@@ -30826,7 +30817,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="883" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A883" s="13" t="s">
         <v>1900</v>
       </c>
@@ -30845,7 +30836,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="884" spans="1:12" s="13" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:12" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A884" s="10" t="s">
         <v>1900</v>
       </c>
@@ -30868,7 +30859,7 @@
       <c r="J884" s="10"/>
       <c r="K884" s="10"/>
     </row>
-    <row r="885" spans="1:12" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:12" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A885" s="37" t="s">
         <v>1900</v>
       </c>
@@ -30891,7 +30882,7 @@
       <c r="J885" s="10"/>
       <c r="K885" s="10"/>
     </row>
-    <row r="886" spans="1:12" s="13" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:12" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A886" s="13" t="s">
         <v>1900</v>
       </c>
@@ -30910,7 +30901,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="887" spans="1:12" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:12" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A887" s="13" t="s">
         <v>1900</v>
       </c>
@@ -30929,7 +30920,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="888" spans="1:12" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:12" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A888" s="13" t="s">
         <v>1900</v>
       </c>
@@ -30948,7 +30939,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="889" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A889" s="13" t="s">
         <v>1900</v>
       </c>
@@ -30967,7 +30958,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="890" spans="1:12" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:12" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A890" s="13" t="s">
         <v>1900</v>
       </c>
@@ -30989,7 +30980,7 @@
       <c r="J890" s="10"/>
       <c r="K890" s="10"/>
     </row>
-    <row r="891" spans="1:12" s="13" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:12" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A891" s="37" t="s">
         <v>1900</v>
       </c>
@@ -31012,7 +31003,7 @@
       <c r="J891" s="10"/>
       <c r="K891" s="10"/>
     </row>
-    <row r="892" spans="1:12" s="13" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:12" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A892" s="37" t="s">
         <v>1900</v>
       </c>
@@ -31035,7 +31026,7 @@
       <c r="J892" s="10"/>
       <c r="K892" s="10"/>
     </row>
-    <row r="893" spans="1:12" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:12" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A893" s="10" t="s">
         <v>1900</v>
       </c>
@@ -31055,7 +31046,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="894" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A894" s="13" t="s">
         <v>1900</v>
       </c>
@@ -31074,7 +31065,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="895" spans="1:12" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:12" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A895" s="13" t="s">
         <v>1900</v>
       </c>
@@ -31093,7 +31084,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="896" spans="1:12" s="13" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:12" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A896" s="37" t="s">
         <v>1900</v>
       </c>
@@ -31117,7 +31108,7 @@
       <c r="K896" s="10"/>
       <c r="L896" s="14"/>
     </row>
-    <row r="897" spans="1:12" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:12" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A897" s="13" t="s">
         <v>1900</v>
       </c>
@@ -31137,7 +31128,7 @@
       </c>
       <c r="L897" s="14"/>
     </row>
-    <row r="898" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A898" s="13" t="s">
         <v>1900</v>
       </c>
@@ -31157,7 +31148,7 @@
       </c>
       <c r="L898" s="14"/>
     </row>
-    <row r="899" spans="1:12" s="13" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:12" s="13" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A899" s="37" t="s">
         <v>1900</v>
       </c>
@@ -31181,7 +31172,7 @@
       <c r="K899" s="10"/>
       <c r="L899" s="14"/>
     </row>
-    <row r="900" spans="1:12" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:12" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A900" s="13" t="s">
         <v>1900</v>
       </c>
@@ -31201,7 +31192,7 @@
       </c>
       <c r="L900" s="14"/>
     </row>
-    <row r="901" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A901" s="13" t="s">
         <v>1930</v>
       </c>
@@ -31221,7 +31212,7 @@
       </c>
       <c r="L901" s="14"/>
     </row>
-    <row r="902" spans="1:12" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:12" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A902" s="13" t="s">
         <v>1930</v>
       </c>
@@ -31241,7 +31232,7 @@
       </c>
       <c r="L902" s="14"/>
     </row>
-    <row r="903" spans="1:12" s="13" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:12" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A903" s="13" t="s">
         <v>1930</v>
       </c>
@@ -31261,7 +31252,7 @@
       </c>
       <c r="L903" s="14"/>
     </row>
-    <row r="904" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A904" s="15" t="s">
         <v>1940</v>
       </c>
@@ -31283,7 +31274,7 @@
       <c r="K904" s="15"/>
       <c r="L904" s="14"/>
     </row>
-    <row r="905" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A905" s="15" t="s">
         <v>1940</v>
       </c>
@@ -31305,7 +31296,7 @@
       <c r="K905" s="15"/>
       <c r="L905" s="14"/>
     </row>
-    <row r="906" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A906" s="13" t="s">
         <v>1945</v>
       </c>
@@ -31325,7 +31316,7 @@
       </c>
       <c r="L906" s="14"/>
     </row>
-    <row r="907" spans="1:12" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:12" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A907" s="13" t="s">
         <v>1945</v>
       </c>
@@ -31346,7 +31337,7 @@
       </c>
       <c r="L907" s="14"/>
     </row>
-    <row r="908" spans="1:12" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:12" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A908" s="13" t="s">
         <v>1945</v>
       </c>
@@ -31367,7 +31358,7 @@
       </c>
       <c r="L908" s="14"/>
     </row>
-    <row r="909" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A909" s="13" t="s">
         <v>1945</v>
       </c>
@@ -31388,7 +31379,7 @@
       </c>
       <c r="L909" s="14"/>
     </row>
-    <row r="910" spans="1:12" s="13" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:12" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A910" s="13" t="s">
         <v>1945</v>
       </c>
@@ -31409,7 +31400,7 @@
       </c>
       <c r="L910" s="14"/>
     </row>
-    <row r="911" spans="1:12" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:12" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A911" s="13" t="s">
         <v>1945</v>
       </c>
@@ -31430,7 +31421,7 @@
       </c>
       <c r="L911" s="14"/>
     </row>
-    <row r="912" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A912" s="13" t="s">
         <v>1945</v>
       </c>
@@ -31450,7 +31441,7 @@
       </c>
       <c r="L912" s="14"/>
     </row>
-    <row r="913" spans="1:9" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:9" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A913" s="13" t="s">
         <v>1945</v>
       </c>
@@ -31469,7 +31460,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="914" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A914" s="13" t="s">
         <v>1945</v>
       </c>
@@ -31489,7 +31480,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="915" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A915" s="13" t="s">
         <v>1945</v>
       </c>
@@ -31509,7 +31500,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="916" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A916" s="13" t="s">
         <v>1945</v>
       </c>
@@ -31529,7 +31520,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="917" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A917" s="13" t="s">
         <v>1945</v>
       </c>
@@ -31549,7 +31540,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="918" spans="1:9" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:9" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A918" s="13" t="s">
         <v>1945</v>
       </c>
@@ -31568,7 +31559,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="919" spans="1:9" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:9" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A919" s="13" t="s">
         <v>1945</v>
       </c>
@@ -31587,7 +31578,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="920" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A920" s="13" t="s">
         <v>1945</v>
       </c>
@@ -31607,7 +31598,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="921" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A921" s="13" t="s">
         <v>1945</v>
       </c>
@@ -31627,7 +31618,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="922" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A922" s="13" t="s">
         <v>1945</v>
       </c>
@@ -31647,7 +31638,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="923" spans="1:9" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:9" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A923" s="13" t="s">
         <v>1945</v>
       </c>
@@ -31667,7 +31658,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="924" spans="1:9" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:9" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A924" s="13" t="s">
         <v>1945</v>
       </c>
@@ -31687,7 +31678,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="925" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A925" s="13" t="s">
         <v>1974</v>
       </c>
@@ -31707,7 +31698,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="926" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A926" s="13" t="s">
         <v>1974</v>
       </c>
@@ -31727,7 +31718,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="927" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A927" s="13" t="s">
         <v>1974</v>
       </c>
@@ -31747,7 +31738,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="928" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A928" s="13" t="s">
         <v>1974</v>
       </c>
@@ -31767,7 +31758,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="929" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A929" s="13" t="s">
         <v>1974</v>
       </c>
@@ -31787,7 +31778,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="930" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A930" s="13" t="s">
         <v>1974</v>
       </c>
@@ -31807,7 +31798,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="931" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A931" s="13" t="s">
         <v>1974</v>
       </c>
@@ -31827,7 +31818,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="932" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A932" s="13" t="s">
         <v>1974</v>
       </c>
@@ -31847,7 +31838,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="933" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A933" s="13" t="s">
         <v>1974</v>
       </c>
@@ -31867,7 +31858,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="934" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A934" s="13" t="s">
         <v>1974</v>
       </c>
@@ -31887,7 +31878,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="935" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A935" s="13" t="s">
         <v>1974</v>
       </c>
@@ -31907,7 +31898,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="936" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A936" s="13" t="s">
         <v>1974</v>
       </c>
@@ -31927,7 +31918,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="937" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A937" s="13" t="s">
         <v>1991</v>
       </c>
@@ -31944,7 +31935,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="938" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A938" s="13" t="s">
         <v>1991</v>
       </c>
@@ -31961,7 +31952,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="939" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A939" s="13" t="s">
         <v>1991</v>
       </c>
@@ -31978,7 +31969,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="940" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A940" s="12" t="s">
         <v>1993</v>
       </c>
@@ -31999,7 +31990,7 @@
       <c r="J940" s="12"/>
       <c r="K940" s="12"/>
     </row>
-    <row r="941" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A941" s="12" t="s">
         <v>1993</v>
       </c>
@@ -32020,7 +32011,7 @@
       <c r="J941" s="12"/>
       <c r="K941" s="12"/>
     </row>
-    <row r="942" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A942" s="12" t="s">
         <v>1993</v>
       </c>
@@ -32041,7 +32032,7 @@
       <c r="J942" s="12"/>
       <c r="K942" s="12"/>
     </row>
-    <row r="943" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A943" s="12" t="s">
         <v>1993</v>
       </c>
@@ -32062,7 +32053,7 @@
       <c r="J943" s="12"/>
       <c r="K943" s="12"/>
     </row>
-    <row r="944" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A944" s="12" t="s">
         <v>1993</v>
       </c>
@@ -32083,7 +32074,7 @@
       <c r="J944" s="12"/>
       <c r="K944" s="12"/>
     </row>
-    <row r="945" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A945" s="12" t="s">
         <v>1993</v>
       </c>
@@ -32104,7 +32095,7 @@
       <c r="J945" s="12"/>
       <c r="K945" s="12"/>
     </row>
-    <row r="946" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A946" s="12" t="s">
         <v>1993</v>
       </c>
@@ -32121,7 +32112,7 @@
       <c r="J946" s="12"/>
       <c r="K946" s="12"/>
     </row>
-    <row r="947" spans="1:11" s="13" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:11" s="13" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A947" s="13" t="s">
         <v>2006</v>
       </c>
@@ -32141,7 +32132,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="948" spans="1:11" s="13" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:11" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A948" s="13" t="s">
         <v>2006</v>
       </c>
@@ -32161,7 +32152,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="949" spans="1:11" s="13" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:11" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A949" s="13" t="s">
         <v>2006</v>
       </c>
@@ -32181,7 +32172,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="950" spans="1:11" s="13" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:11" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A950" s="13" t="s">
         <v>2006</v>
       </c>
@@ -32201,7 +32192,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="951" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A951" s="13" t="s">
         <v>2006</v>
       </c>
@@ -32219,7 +32210,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="952" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A952" s="13" t="s">
         <v>2019</v>
       </c>
@@ -32239,7 +32230,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="953" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A953" s="13" t="s">
         <v>2019</v>
       </c>
@@ -32257,7 +32248,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="954" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A954" s="13" t="s">
         <v>2019</v>
       </c>
@@ -32275,7 +32266,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="955" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A955" s="13" t="s">
         <v>2019</v>
       </c>
@@ -32295,7 +32286,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="956" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A956" s="13" t="s">
         <v>2019</v>
       </c>
@@ -32313,7 +32304,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="957" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A957" s="13" t="s">
         <v>2019</v>
       </c>
@@ -32331,7 +32322,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="958" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A958" s="13" t="s">
         <v>2019</v>
       </c>
@@ -32349,7 +32340,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="959" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A959" s="13" t="s">
         <v>2026</v>
       </c>
@@ -32368,7 +32359,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="960" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A960" s="13" t="s">
         <v>2026</v>
       </c>
@@ -32387,7 +32378,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="961" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A961" s="13" t="s">
         <v>2031</v>
       </c>
@@ -32406,7 +32397,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="962" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A962" s="13" t="s">
         <v>2031</v>
       </c>
@@ -32425,7 +32416,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="963" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A963" s="13" t="s">
         <v>2037</v>
       </c>
@@ -32444,7 +32435,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="964" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A964" s="13" t="s">
         <v>2037</v>
       </c>
@@ -32463,7 +32454,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="965" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A965" s="13" t="s">
         <v>2037</v>
       </c>
@@ -32482,7 +32473,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="966" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A966" s="13" t="s">
         <v>2037</v>
       </c>
@@ -32501,7 +32492,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="967" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A967" s="15" t="s">
         <v>2048</v>
       </c>
@@ -32522,7 +32513,7 @@
       <c r="J967" s="15"/>
       <c r="K967" s="15"/>
     </row>
-    <row r="968" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A968" s="15" t="s">
         <v>2048</v>
       </c>
@@ -32543,7 +32534,7 @@
       <c r="J968" s="15"/>
       <c r="K968" s="15"/>
     </row>
-    <row r="969" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A969" s="15" t="s">
         <v>2048</v>
       </c>
@@ -32564,7 +32555,7 @@
       <c r="J969" s="15"/>
       <c r="K969" s="15"/>
     </row>
-    <row r="970" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A970" s="15" t="s">
         <v>2048</v>
       </c>
@@ -32585,7 +32576,7 @@
       <c r="J970" s="15"/>
       <c r="K970" s="15"/>
     </row>
-    <row r="971" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A971" s="15" t="s">
         <v>2048</v>
       </c>
@@ -32606,7 +32597,7 @@
       <c r="J971" s="15"/>
       <c r="K971" s="15"/>
     </row>
-    <row r="972" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A972" s="15" t="s">
         <v>2058</v>
       </c>
@@ -32627,7 +32618,7 @@
       <c r="J972" s="15"/>
       <c r="K972" s="15"/>
     </row>
-    <row r="973" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A973" s="15" t="s">
         <v>2058</v>
       </c>
@@ -32648,7 +32639,7 @@
       <c r="J973" s="15"/>
       <c r="K973" s="15"/>
     </row>
-    <row r="974" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A974" s="15" t="s">
         <v>2058</v>
       </c>
@@ -32669,7 +32660,7 @@
       <c r="J974" s="15"/>
       <c r="K974" s="15"/>
     </row>
-    <row r="975" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A975" s="26" t="s">
         <v>2059</v>
       </c>
@@ -32696,7 +32687,7 @@
       </c>
       <c r="K975" s="26"/>
     </row>
-    <row r="976" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A976" s="26" t="s">
         <v>2059</v>
       </c>
@@ -32723,7 +32714,7 @@
       </c>
       <c r="K976" s="26"/>
     </row>
-    <row r="977" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A977" s="26" t="s">
         <v>2059</v>
       </c>
@@ -32750,7 +32741,7 @@
       </c>
       <c r="K977" s="26"/>
     </row>
-    <row r="978" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A978" s="26" t="s">
         <v>2059</v>
       </c>
@@ -32777,7 +32768,7 @@
       </c>
       <c r="K978" s="26"/>
     </row>
-    <row r="979" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A979" s="26" t="s">
         <v>2059</v>
       </c>
@@ -32804,7 +32795,7 @@
       </c>
       <c r="K979" s="26"/>
     </row>
-    <row r="980" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A980" s="26" t="s">
         <v>2059</v>
       </c>
@@ -32831,7 +32822,7 @@
       </c>
       <c r="K980" s="26"/>
     </row>
-    <row r="981" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A981" s="26" t="s">
         <v>2059</v>
       </c>
@@ -32858,7 +32849,7 @@
       </c>
       <c r="K981" s="26"/>
     </row>
-    <row r="982" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A982" s="26" t="s">
         <v>2059</v>
       </c>
@@ -32885,7 +32876,7 @@
       </c>
       <c r="K982" s="26"/>
     </row>
-    <row r="983" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A983" s="26" t="s">
         <v>2059</v>
       </c>
@@ -32912,7 +32903,7 @@
       </c>
       <c r="K983" s="26"/>
     </row>
-    <row r="984" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A984" s="26" t="s">
         <v>2059</v>
       </c>
@@ -32939,7 +32930,7 @@
       </c>
       <c r="K984" s="26"/>
     </row>
-    <row r="985" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A985" s="26" t="s">
         <v>2059</v>
       </c>
@@ -32966,7 +32957,7 @@
       </c>
       <c r="K985" s="26"/>
     </row>
-    <row r="986" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A986" s="26" t="s">
         <v>2059</v>
       </c>
@@ -32994,7 +32985,7 @@
       <c r="K986" s="26"/>
       <c r="L986" s="14"/>
     </row>
-    <row r="987" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A987" s="26" t="s">
         <v>2059</v>
       </c>
@@ -33022,7 +33013,7 @@
       <c r="K987" s="26"/>
       <c r="L987" s="14"/>
     </row>
-    <row r="988" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A988" s="26" t="s">
         <v>2059</v>
       </c>
@@ -33050,7 +33041,7 @@
       <c r="K988" s="26"/>
       <c r="L988" s="14"/>
     </row>
-    <row r="989" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A989" s="26" t="s">
         <v>2059</v>
       </c>
@@ -33078,7 +33069,7 @@
       <c r="K989" s="26"/>
       <c r="L989" s="14"/>
     </row>
-    <row r="990" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A990" s="26" t="s">
         <v>2059</v>
       </c>
@@ -33106,7 +33097,7 @@
       <c r="K990" s="26"/>
       <c r="L990" s="14"/>
     </row>
-    <row r="991" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A991" s="26" t="s">
         <v>2059</v>
       </c>
@@ -33134,7 +33125,7 @@
       <c r="K991" s="26"/>
       <c r="L991" s="14"/>
     </row>
-    <row r="992" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A992" s="26" t="s">
         <v>2059</v>
       </c>
@@ -33162,7 +33153,7 @@
       <c r="K992" s="26"/>
       <c r="L992" s="14"/>
     </row>
-    <row r="993" spans="1:12" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:12" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A993" s="26" t="s">
         <v>2059</v>
       </c>
@@ -33190,7 +33181,7 @@
       <c r="K993" s="26"/>
       <c r="L993" s="14"/>
     </row>
-    <row r="994" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A994" s="26" t="s">
         <v>2059</v>
       </c>
@@ -33218,7 +33209,7 @@
       <c r="K994" s="26"/>
       <c r="L994" s="14"/>
     </row>
-    <row r="995" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A995" s="26" t="s">
         <v>2059</v>
       </c>
@@ -33246,7 +33237,7 @@
       <c r="K995" s="26"/>
       <c r="L995" s="14"/>
     </row>
-    <row r="996" spans="1:12" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:12" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A996" s="12" t="s">
         <v>2063</v>
       </c>
@@ -33272,7 +33263,7 @@
       </c>
       <c r="L996" s="14"/>
     </row>
-    <row r="997" spans="1:12" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:12" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A997" s="12" t="s">
         <v>2063</v>
       </c>
@@ -33298,7 +33289,7 @@
       </c>
       <c r="L997" s="14"/>
     </row>
-    <row r="998" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A998" s="12" t="s">
         <v>2063</v>
       </c>
@@ -33324,7 +33315,7 @@
       </c>
       <c r="L998" s="14"/>
     </row>
-    <row r="999" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A999" s="12" t="s">
         <v>2063</v>
       </c>
@@ -33350,7 +33341,7 @@
       </c>
       <c r="L999" s="14"/>
     </row>
-    <row r="1000" spans="1:12" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:12" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1000" s="13" t="s">
         <v>2122</v>
       </c>
@@ -33371,7 +33362,7 @@
       </c>
       <c r="L1000" s="14"/>
     </row>
-    <row r="1001" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1001" s="13" t="s">
         <v>2122</v>
       </c>
@@ -33390,7 +33381,7 @@
       </c>
       <c r="L1001" s="14"/>
     </row>
-    <row r="1002" spans="1:12" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:12" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1002" s="13" t="s">
         <v>2122</v>
       </c>
@@ -33411,7 +33402,7 @@
       </c>
       <c r="L1002" s="14"/>
     </row>
-    <row r="1003" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1003" s="13" t="s">
         <v>2122</v>
       </c>
@@ -33430,7 +33421,7 @@
       </c>
       <c r="L1003" s="14"/>
     </row>
-    <row r="1004" spans="1:12" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:12" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1004" s="13" t="s">
         <v>2122</v>
       </c>
@@ -33451,7 +33442,7 @@
       </c>
       <c r="L1004" s="14"/>
     </row>
-    <row r="1005" spans="1:12" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:12" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1005" s="13" t="s">
         <v>2122</v>
       </c>
@@ -33472,7 +33463,7 @@
       </c>
       <c r="L1005" s="14"/>
     </row>
-    <row r="1006" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1006" s="13" t="s">
         <v>2122</v>
       </c>
@@ -33493,7 +33484,7 @@
       </c>
       <c r="L1006" s="14"/>
     </row>
-    <row r="1007" spans="1:12" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:12" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1007" s="13" t="s">
         <v>2122</v>
       </c>
@@ -33514,7 +33505,7 @@
       </c>
       <c r="L1007" s="14"/>
     </row>
-    <row r="1008" spans="1:12" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:12" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1008" s="13" t="s">
         <v>2122</v>
       </c>
@@ -33535,7 +33526,7 @@
       </c>
       <c r="L1008" s="14"/>
     </row>
-    <row r="1009" spans="1:12" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:12" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1009" s="13" t="s">
         <v>2144</v>
       </c>
@@ -33556,7 +33547,7 @@
       </c>
       <c r="L1009" s="14"/>
     </row>
-    <row r="1010" spans="1:12" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:12" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1010" s="13" t="s">
         <v>2144</v>
       </c>
@@ -33577,7 +33568,7 @@
       </c>
       <c r="L1010" s="14"/>
     </row>
-    <row r="1011" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1011" s="13" t="s">
         <v>2144</v>
       </c>
@@ -33598,7 +33589,7 @@
       </c>
       <c r="L1011" s="14"/>
     </row>
-    <row r="1012" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1012" s="13" t="s">
         <v>2144</v>
       </c>
@@ -33619,7 +33610,7 @@
       </c>
       <c r="L1012" s="14"/>
     </row>
-    <row r="1013" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1013" s="13" t="s">
         <v>2144</v>
       </c>
@@ -33640,7 +33631,7 @@
       </c>
       <c r="L1013" s="14"/>
     </row>
-    <row r="1014" spans="1:12" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:12" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1014" s="13" t="s">
         <v>2144</v>
       </c>
@@ -33661,7 +33652,7 @@
       </c>
       <c r="L1014" s="14"/>
     </row>
-    <row r="1015" spans="1:12" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:12" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1015" s="13" t="s">
         <v>2144</v>
       </c>
@@ -33682,7 +33673,7 @@
       </c>
       <c r="L1015" s="14"/>
     </row>
-    <row r="1016" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1016" s="13" t="s">
         <v>1900</v>
       </c>
@@ -33705,7 +33696,7 @@
       <c r="J1016" s="13"/>
       <c r="K1016" s="13"/>
     </row>
-    <row r="1017" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1017" s="37" t="s">
         <v>1900</v>
       </c>
@@ -33728,7 +33719,7 @@
       <c r="J1017" s="10"/>
       <c r="K1017" s="10"/>
     </row>
-    <row r="1018" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1018" s="35" t="s">
         <v>1900</v>
       </c>
@@ -33751,7 +33742,7 @@
       <c r="J1018" s="10"/>
       <c r="K1018" s="10"/>
     </row>
-    <row r="1019" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1019" s="39" t="s">
         <v>1900</v>
       </c>
@@ -33774,7 +33765,7 @@
       <c r="J1019" s="13"/>
       <c r="K1019" s="13"/>
     </row>
-    <row r="1020" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A1020" s="39" t="s">
         <v>1900</v>
       </c>
@@ -33797,7 +33788,7 @@
       <c r="J1020" s="13"/>
       <c r="K1020" s="13"/>
     </row>
-    <row r="1021" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1021" s="36" t="s">
         <v>1900</v>
       </c>
@@ -33820,7 +33811,7 @@
       <c r="J1021" s="10"/>
       <c r="K1021" s="10"/>
     </row>
-    <row r="1022" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A1022" s="38" t="s">
         <v>1900</v>
       </c>
@@ -33843,7 +33834,7 @@
       <c r="J1022" s="13"/>
       <c r="K1022" s="13"/>
     </row>
-    <row r="1023" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1023" s="36" t="s">
         <v>1900</v>
       </c>
@@ -33866,7 +33857,7 @@
       <c r="J1023" s="10"/>
       <c r="K1023" s="10"/>
     </row>
-    <row r="1024" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A1024" s="38" t="s">
         <v>1900</v>
       </c>
@@ -33889,7 +33880,7 @@
       <c r="J1024" s="13"/>
       <c r="K1024" s="13"/>
     </row>
-    <row r="1025" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A1025" s="38" t="s">
         <v>1900</v>
       </c>
@@ -33912,7 +33903,7 @@
       <c r="J1025" s="13"/>
       <c r="K1025" s="13"/>
     </row>
-    <row r="1026" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1026" s="36" t="s">
         <v>1900</v>
       </c>
@@ -33935,7 +33926,7 @@
       <c r="J1026" s="10"/>
       <c r="K1026" s="10"/>
     </row>
-    <row r="1027" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1027" s="36" t="s">
         <v>1900</v>
       </c>
@@ -33958,7 +33949,7 @@
       <c r="J1027" s="10"/>
       <c r="K1027" s="10"/>
     </row>
-    <row r="1028" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A1028" s="38" t="s">
         <v>1900</v>
       </c>
@@ -33981,7 +33972,7 @@
       <c r="J1028" s="10"/>
       <c r="K1028" s="10"/>
     </row>
-    <row r="1029" spans="1:11" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A1029" s="36" t="s">
         <v>1900</v>
       </c>
@@ -34004,7 +33995,7 @@
       <c r="J1029" s="10"/>
       <c r="K1029" s="10"/>
     </row>
-    <row r="1030" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1030" s="36" t="s">
         <v>1900</v>
       </c>
@@ -34027,7 +34018,7 @@
       <c r="J1030" s="10"/>
       <c r="K1030" s="10"/>
     </row>
-    <row r="1031" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1031" s="10" t="s">
         <v>3692</v>
       </c>
@@ -34050,7 +34041,7 @@
       <c r="J1031" s="10"/>
       <c r="K1031" s="10"/>
     </row>
-    <row r="1032" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1032" s="10" t="s">
         <v>3692</v>
       </c>
@@ -34073,7 +34064,7 @@
       <c r="J1032" s="10"/>
       <c r="K1032" s="10"/>
     </row>
-    <row r="1033" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1033" s="10" t="s">
         <v>3692</v>
       </c>
@@ -34096,7 +34087,7 @@
       <c r="J1033" s="10"/>
       <c r="K1033" s="10"/>
     </row>
-    <row r="1034" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1034" s="10" t="s">
         <v>3692</v>
       </c>
@@ -34117,7 +34108,7 @@
       <c r="J1034" s="10"/>
       <c r="K1034" s="10"/>
     </row>
-    <row r="1035" spans="1:11" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A1035" s="10" t="s">
         <v>3692</v>
       </c>
@@ -34140,7 +34131,7 @@
       <c r="J1035" s="10"/>
       <c r="K1035" s="10"/>
     </row>
-    <row r="1036" spans="1:11" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A1036" s="10" t="s">
         <v>3692</v>
       </c>
@@ -34163,7 +34154,7 @@
       <c r="J1036" s="10"/>
       <c r="K1036" s="10"/>
     </row>
-    <row r="1037" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A1037" s="10" t="s">
         <v>3692</v>
       </c>
@@ -34186,7 +34177,7 @@
       <c r="J1037" s="10"/>
       <c r="K1037" s="10"/>
     </row>
-    <row r="1038" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1038" s="10" t="s">
         <v>3692</v>
       </c>
@@ -34209,7 +34200,7 @@
       <c r="J1038" s="10"/>
       <c r="K1038" s="10"/>
     </row>
-    <row r="1039" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1039" s="10" t="s">
         <v>3700</v>
       </c>
@@ -34232,7 +34223,7 @@
       <c r="J1039" s="10"/>
       <c r="K1039" s="10"/>
     </row>
-    <row r="1040" spans="1:11" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A1040" s="10" t="s">
         <v>3700</v>
       </c>
@@ -34255,7 +34246,7 @@
       <c r="J1040" s="10"/>
       <c r="K1040" s="10"/>
     </row>
-    <row r="1041" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1041" s="10" t="s">
         <v>3700</v>
       </c>
@@ -34278,7 +34269,7 @@
       <c r="J1041" s="10"/>
       <c r="K1041" s="10"/>
     </row>
-    <row r="1042" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1042" s="10" t="s">
         <v>3739</v>
       </c>
@@ -34301,7 +34292,7 @@
       <c r="J1042" s="10"/>
       <c r="K1042" s="10"/>
     </row>
-    <row r="1043" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1043" s="10" t="s">
         <v>3739</v>
       </c>
@@ -34324,7 +34315,7 @@
       <c r="J1043" s="10"/>
       <c r="K1043" s="10"/>
     </row>
-    <row r="1044" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1044" s="10" t="s">
         <v>3739</v>
       </c>
@@ -34347,7 +34338,7 @@
       <c r="J1044" s="10"/>
       <c r="K1044" s="10"/>
     </row>
-    <row r="1045" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1045" s="10" t="s">
         <v>3739</v>
       </c>
@@ -34370,7 +34361,7 @@
       <c r="J1045" s="10"/>
       <c r="K1045" s="10"/>
     </row>
-    <row r="1046" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1046" s="10" t="s">
         <v>3739</v>
       </c>
@@ -34393,7 +34384,7 @@
       <c r="J1046" s="10"/>
       <c r="K1046" s="10"/>
     </row>
-    <row r="1047" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1047" s="49" t="s">
         <v>3712</v>
       </c>
@@ -34418,7 +34409,7 @@
       </c>
       <c r="K1047" s="50"/>
     </row>
-    <row r="1048" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1048" s="49" t="s">
         <v>3712</v>
       </c>
@@ -34443,7 +34434,7 @@
       </c>
       <c r="K1048" s="50"/>
     </row>
-    <row r="1049" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1049" s="49" t="s">
         <v>3712</v>
       </c>
@@ -34468,7 +34459,7 @@
       </c>
       <c r="K1049" s="50"/>
     </row>
-    <row r="1050" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1050" s="10"/>
       <c r="B1050" s="10"/>
       <c r="C1050" s="10"/>
@@ -34481,7 +34472,7 @@
       <c r="J1050" s="10"/>
       <c r="K1050" s="10"/>
     </row>
-    <row r="1051" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1051" s="36" t="s">
         <v>1900</v>
       </c>
@@ -34504,7 +34495,7 @@
       <c r="J1051" s="10"/>
       <c r="K1051" s="10"/>
     </row>
-    <row r="1052" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1052" s="36" t="s">
         <v>1900</v>
       </c>
@@ -34527,7 +34518,7 @@
       <c r="J1052" s="10"/>
       <c r="K1052" s="10"/>
     </row>
-    <row r="1053" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1053" s="10"/>
       <c r="B1053" s="10"/>
       <c r="C1053" s="10"/>
@@ -34540,7 +34531,7 @@
       <c r="J1053" s="10"/>
       <c r="K1053" s="10"/>
     </row>
-    <row r="1054" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1054" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1054" s="36" t="s">
         <v>1900</v>
       </c>
@@ -34563,7 +34554,7 @@
       <c r="J1054" s="10"/>
       <c r="K1054" s="10"/>
     </row>
-    <row r="1055" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1055" s="10" t="s">
         <v>3745</v>
       </c>
@@ -34586,7 +34577,7 @@
       <c r="J1055" s="10"/>
       <c r="K1055" s="10"/>
     </row>
-    <row r="1056" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1056" s="10" t="s">
         <v>3745</v>
       </c>
@@ -34609,7 +34600,7 @@
       <c r="J1056" s="10"/>
       <c r="K1056" s="10"/>
     </row>
-    <row r="1057" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1057" s="10" t="s">
         <v>3745</v>
       </c>
@@ -34632,7 +34623,7 @@
       <c r="J1057" s="10"/>
       <c r="K1057" s="10"/>
     </row>
-    <row r="1058" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1058" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1058" s="10" t="s">
         <v>3745</v>
       </c>
@@ -34655,7 +34646,7 @@
       <c r="J1058" s="10"/>
       <c r="K1058" s="10"/>
     </row>
-    <row r="1059" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1059" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1059" s="10" t="s">
         <v>3746</v>
       </c>
@@ -34678,7 +34669,7 @@
       <c r="J1059" s="10"/>
       <c r="K1059" s="10"/>
     </row>
-    <row r="1060" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1060" s="10" t="s">
         <v>3746</v>
       </c>
@@ -34701,7 +34692,7 @@
       <c r="J1060" s="10"/>
       <c r="K1060" s="10"/>
     </row>
-    <row r="1061" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1061" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1061" s="10" t="s">
         <v>3747</v>
       </c>
@@ -34724,7 +34715,7 @@
       <c r="J1061" s="10"/>
       <c r="K1061" s="10"/>
     </row>
-    <row r="1062" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1062" s="10" t="s">
         <v>3747</v>
       </c>
@@ -34747,7 +34738,7 @@
       <c r="J1062" s="10"/>
       <c r="K1062" s="10"/>
     </row>
-    <row r="1063" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1063" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1063" s="10" t="s">
         <v>3747</v>
       </c>
@@ -34770,7 +34761,7 @@
       <c r="J1063" s="10"/>
       <c r="K1063" s="10"/>
     </row>
-    <row r="1064" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1064" s="36" t="s">
         <v>1900</v>
       </c>
@@ -34793,7 +34784,7 @@
       <c r="J1064" s="10"/>
       <c r="K1064" s="10"/>
     </row>
-    <row r="1065" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1065" s="36" t="s">
         <v>1900</v>
       </c>
@@ -34816,7 +34807,7 @@
       <c r="J1065" s="10"/>
       <c r="K1065" s="10"/>
     </row>
-    <row r="1066" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1066" s="36" t="s">
         <v>1900</v>
       </c>
@@ -34839,7 +34830,7 @@
       <c r="J1066" s="10"/>
       <c r="K1066" s="10"/>
     </row>
-    <row r="1067" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1067" s="36" t="s">
         <v>1900</v>
       </c>
@@ -41105,21 +41096,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EFD438D9B9ABE14A977C2E01E1E997E9" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="238b4f00df057bc2742cc7aff66473ed">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="41b44f4d-acd5-45c0-8ca7-9032ca64d707" xmlns:ns3="bc2bfcf0-0204-42b7-916d-bc08fc5e6372" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bfb8db5c6f5549a83cd0326992bdc891" ns2:_="" ns3:_="">
     <xsd:import namespace="41b44f4d-acd5-45c0-8ca7-9032ca64d707"/>
@@ -41322,24 +41298,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E3AA29B-E85A-4662-AF70-E41EEBB4502A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6EB239C-D482-4083-A20F-2310AB45B47F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9FCA9DB-B654-4D97-A1BC-1B4528FD4E25}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -41356,4 +41330,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6EB239C-D482-4083-A20F-2310AB45B47F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E3AA29B-E85A-4662-AF70-E41EEBB4502A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>